--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_20_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_20_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>993687.2727980177</v>
+        <v>990830.0363317203</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.27738790031055</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.93890542723723</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>13.93890542723723</v>
+        <v>5.401342158599112</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>12.27738790031055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>13.93890542723723</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="H3" t="n">
-        <v>12.27738790031055</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>13.93890542723723</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>12.27738790031055</v>
       </c>
       <c r="H4" t="n">
-        <v>12.27738790031055</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>33.70079978025095</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>47.40812043802894</v>
+        <v>13.70732065777799</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>48.67402515116256</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>55.26115480377223</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>48.67402515116256</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.43783333287094</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>34.93619783623065</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="X7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="D8" t="n">
-        <v>69.11209925255302</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>112.1126601249236</v>
+        <v>55.72339490806522</v>
       </c>
       <c r="F8" t="n">
         <v>112.1126601249236</v>
       </c>
       <c r="G8" t="n">
-        <v>112.1126601249236</v>
+        <v>13.38870434448781</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>29.63673178547967</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>108.5166779089042</v>
       </c>
       <c r="G9" t="n">
-        <v>8.037790645995637</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>54.13711731454487</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.5739230774922</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>112.1126601249236</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>51.82194179032381</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="G10" t="n">
-        <v>51.82194179032381</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>32.65832442698834</v>
@@ -1336,7 +1336,7 @@
         <v>14.26856482072056</v>
       </c>
       <c r="R10" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>136.7255776522299</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292578</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.56319401867222e-13</v>
+        <v>109.1877617881757</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>219.2565166098819</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>137.2535816974951</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>10.87319794806442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G14" t="n">
-        <v>410.2855492930626</v>
+        <v>410.2855492930624</v>
       </c>
       <c r="H14" t="n">
-        <v>52.26021843917141</v>
+        <v>43.2123476443269</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>94.69089297576771</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>201.1331081220089</v>
+        <v>201.1331081220087</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9442778500707</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.65908480458</v>
       </c>
       <c r="H15" t="n">
-        <v>86.30947908866939</v>
+        <v>86.30947908866941</v>
       </c>
       <c r="I15" t="n">
-        <v>7.097844845393951</v>
+        <v>7.097844845393993</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G16" t="n">
-        <v>165.7404414449102</v>
+        <v>165.7404414449101</v>
       </c>
       <c r="H16" t="n">
-        <v>142.2178445124355</v>
+        <v>142.2178445124353</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77066203618112</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>76.10102300979707</v>
       </c>
       <c r="S16" t="n">
-        <v>184.795860034495</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.329654706756</v>
+        <v>218.3296547067559</v>
       </c>
       <c r="U16" t="n">
-        <v>263.5094218176661</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>181.6924067697513</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>324.2384680082563</v>
       </c>
       <c r="E17" t="n">
-        <v>187.1944806158317</v>
+        <v>351.4857964598352</v>
       </c>
       <c r="F17" t="n">
         <v>376.4314721292848</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.246319363341</v>
+        <v>64.24631936334112</v>
       </c>
       <c r="T17" t="n">
-        <v>170.6885345095822</v>
+        <v>6.397218665574628</v>
       </c>
       <c r="U17" t="n">
         <v>220.4997042376441</v>
@@ -1938,10 +1938,10 @@
         <v>134.65908480458</v>
       </c>
       <c r="H18" t="n">
-        <v>86.30947908866938</v>
+        <v>86.30947908866941</v>
       </c>
       <c r="I18" t="n">
-        <v>7.097844845393908</v>
+        <v>7.097844845393993</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>121.8210174248879</v>
+        <v>121.821017424888</v>
       </c>
       <c r="T18" t="n">
         <v>189.3445824773588</v>
@@ -2002,7 +2002,7 @@
         <v>149.3874065695107</v>
       </c>
       <c r="C19" t="n">
-        <v>50.41637866658767</v>
+        <v>50.41637866658586</v>
       </c>
       <c r="D19" t="n">
         <v>118.1708994057857</v>
@@ -2017,10 +2017,10 @@
         <v>135.2958678324836</v>
       </c>
       <c r="H19" t="n">
-        <v>111.7732709000088</v>
+        <v>111.7732709000089</v>
       </c>
       <c r="I19" t="n">
-        <v>57.32608842375446</v>
+        <v>57.3260884237545</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>45.65644939737052</v>
+        <v>45.65644939737061</v>
       </c>
       <c r="S19" t="n">
         <v>154.3512864220683</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.246319363341</v>
+        <v>64.24631936334112</v>
       </c>
       <c r="T20" t="n">
-        <v>170.6885345095822</v>
+        <v>170.6885345095823</v>
       </c>
       <c r="U20" t="n">
-        <v>56.20838839363996</v>
+        <v>220.4997042376441</v>
       </c>
       <c r="V20" t="n">
         <v>297.3076848577083</v>
       </c>
       <c r="W20" t="n">
-        <v>318.7963951049864</v>
+        <v>154.5050792609786</v>
       </c>
       <c r="X20" t="n">
         <v>339.2865270660424</v>
@@ -2175,10 +2175,10 @@
         <v>134.65908480458</v>
       </c>
       <c r="H21" t="n">
-        <v>86.30947908866938</v>
+        <v>86.30947908866941</v>
       </c>
       <c r="I21" t="n">
-        <v>7.097844845393908</v>
+        <v>7.097844845393993</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>121.8210174248879</v>
+        <v>121.821017424888</v>
       </c>
       <c r="T21" t="n">
         <v>189.3445824773588</v>
@@ -2248,16 +2248,16 @@
         <v>115.9893890341425</v>
       </c>
       <c r="F22" t="n">
-        <v>28.59060559089118</v>
+        <v>114.9764744105046</v>
       </c>
       <c r="G22" t="n">
-        <v>135.2958678324836</v>
+        <v>94.56644841023909</v>
       </c>
       <c r="H22" t="n">
-        <v>111.7732709000088</v>
+        <v>111.7732709000089</v>
       </c>
       <c r="I22" t="n">
-        <v>57.32608842375446</v>
+        <v>57.32608842375451</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>45.65644939737052</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>154.3512864220683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>61.18133500594327</v>
+        <v>61.18133500594325</v>
       </c>
       <c r="T23" t="n">
         <v>170.09974815634</v>
@@ -2415,7 +2415,7 @@
         <v>85.61444497765447</v>
       </c>
       <c r="I24" t="n">
-        <v>4.620089272520616</v>
+        <v>4.620089272520602</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.4842919661468</v>
+        <v>120.4842919661467</v>
       </c>
       <c r="T24" t="n">
         <v>189.0545114746237</v>
@@ -2491,10 +2491,10 @@
         <v>135.2355344713482</v>
       </c>
       <c r="H25" t="n">
-        <v>111.2368524710047</v>
+        <v>89.90949182784796</v>
       </c>
       <c r="I25" t="n">
-        <v>55.51169970888159</v>
+        <v>55.51169970888157</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.94364208668092</v>
+        <v>42.94364208668091</v>
       </c>
       <c r="S25" t="n">
         <v>153.2998404830081</v>
@@ -2539,7 +2539,7 @@
         <v>256.0784247241644</v>
       </c>
       <c r="X25" t="n">
-        <v>173.937721133453</v>
+        <v>195.2650817766105</v>
       </c>
       <c r="Y25" t="n">
         <v>188.1400797396682</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>352.289268051054</v>
+        <v>352.2892680510541</v>
       </c>
       <c r="C26" t="n">
-        <v>334.82831815858</v>
+        <v>334.8283181585811</v>
       </c>
       <c r="D26" t="n">
-        <v>324.2384680082563</v>
+        <v>324.2384680082565</v>
       </c>
       <c r="E26" t="n">
-        <v>351.4857964598352</v>
+        <v>351.4857964598353</v>
       </c>
       <c r="F26" t="n">
-        <v>376.4314721292848</v>
+        <v>376.431472129285</v>
       </c>
       <c r="G26" t="n">
-        <v>379.70647280154</v>
+        <v>379.7064728015402</v>
       </c>
       <c r="H26" t="n">
-        <v>256.2704720134994</v>
+        <v>256.2704720134996</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>61.18133500594327</v>
+        <v>61.18133500594169</v>
       </c>
       <c r="T26" t="n">
-        <v>170.09974815634</v>
+        <v>170.0997481563402</v>
       </c>
       <c r="U26" t="n">
-        <v>220.4889440073164</v>
+        <v>220.4889440073166</v>
       </c>
       <c r="V26" t="n">
-        <v>297.3076848577083</v>
+        <v>297.3076848577085</v>
       </c>
       <c r="W26" t="n">
-        <v>318.7963951049864</v>
+        <v>318.7963951049866</v>
       </c>
       <c r="X26" t="n">
-        <v>339.2865270660424</v>
+        <v>339.2865270660426</v>
       </c>
       <c r="Y26" t="n">
-        <v>355.793365043627</v>
+        <v>355.7933650436271</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>85.61444497765447</v>
       </c>
       <c r="I27" t="n">
-        <v>4.620089272520616</v>
+        <v>4.620089272520602</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>120.4842919661468</v>
+        <v>120.4842919661467</v>
       </c>
       <c r="T27" t="n">
         <v>189.0545114746237</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>149.3874065695107</v>
+        <v>149.3874065695109</v>
       </c>
       <c r="C28" t="n">
-        <v>136.8022474862012</v>
+        <v>136.8022474862014</v>
       </c>
       <c r="D28" t="n">
-        <v>118.1708994057857</v>
+        <v>118.1708994057859</v>
       </c>
       <c r="E28" t="n">
-        <v>94.66202839098489</v>
+        <v>115.9893890341427</v>
       </c>
       <c r="F28" t="n">
-        <v>114.9764744105046</v>
+        <v>114.9764744105048</v>
       </c>
       <c r="G28" t="n">
-        <v>135.2355344713482</v>
+        <v>135.2355344713484</v>
       </c>
       <c r="H28" t="n">
-        <v>111.2368524710047</v>
+        <v>111.2368524710049</v>
       </c>
       <c r="I28" t="n">
-        <v>55.51169970888159</v>
+        <v>55.51169970888176</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.94364208668092</v>
+        <v>21.61628144352061</v>
       </c>
       <c r="S28" t="n">
-        <v>153.2998404830081</v>
+        <v>153.2998404830083</v>
       </c>
       <c r="T28" t="n">
-        <v>187.6272930967507</v>
+        <v>187.6272930967509</v>
       </c>
       <c r="U28" t="n">
-        <v>255.7484082199906</v>
+        <v>255.7484082199908</v>
       </c>
       <c r="V28" t="n">
-        <v>221.6930697114014</v>
+        <v>221.6930697114016</v>
       </c>
       <c r="W28" t="n">
-        <v>256.0784247241644</v>
+        <v>256.0784247241646</v>
       </c>
       <c r="X28" t="n">
-        <v>195.2650817766105</v>
+        <v>195.2650817766107</v>
       </c>
       <c r="Y28" t="n">
-        <v>188.1400797396682</v>
+        <v>188.1400797396684</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>352.2892680510539</v>
+        <v>352.2892680510541</v>
       </c>
       <c r="C29" t="n">
-        <v>334.8283181585809</v>
+        <v>334.8283181585811</v>
       </c>
       <c r="D29" t="n">
-        <v>324.2384680082563</v>
+        <v>324.2384680082565</v>
       </c>
       <c r="E29" t="n">
-        <v>351.4857964598351</v>
+        <v>351.4857964598353</v>
       </c>
       <c r="F29" t="n">
-        <v>376.4314721292848</v>
+        <v>376.431472129285</v>
       </c>
       <c r="G29" t="n">
-        <v>379.70647280154</v>
+        <v>379.7064728015402</v>
       </c>
       <c r="H29" t="n">
-        <v>256.2704720134994</v>
+        <v>256.2704720134996</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.18133500594327</v>
+        <v>61.18133500594345</v>
       </c>
       <c r="T29" t="n">
-        <v>170.09974815634</v>
+        <v>170.0997481563402</v>
       </c>
       <c r="U29" t="n">
-        <v>220.4889440073164</v>
+        <v>220.4889440073166</v>
       </c>
       <c r="V29" t="n">
-        <v>297.3076848577083</v>
+        <v>297.3076848577085</v>
       </c>
       <c r="W29" t="n">
-        <v>318.7963951049863</v>
+        <v>318.7963951049866</v>
       </c>
       <c r="X29" t="n">
-        <v>339.2865270660424</v>
+        <v>339.2865270660426</v>
       </c>
       <c r="Y29" t="n">
-        <v>355.793365043627</v>
+        <v>355.7933650436271</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>85.61444497765447</v>
       </c>
       <c r="I30" t="n">
-        <v>4.620089272520616</v>
+        <v>4.620089272520602</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>120.4842919661468</v>
+        <v>120.4842919661467</v>
       </c>
       <c r="T30" t="n">
         <v>189.0545114746237</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.3874065695107</v>
+        <v>149.3874065695109</v>
       </c>
       <c r="C31" t="n">
-        <v>136.8022474862012</v>
+        <v>136.8022474862014</v>
       </c>
       <c r="D31" t="n">
-        <v>118.1708994057857</v>
+        <v>118.1708994057859</v>
       </c>
       <c r="E31" t="n">
-        <v>115.9893890341425</v>
+        <v>115.9893890341427</v>
       </c>
       <c r="F31" t="n">
-        <v>114.9764744105046</v>
+        <v>93.64911376734409</v>
       </c>
       <c r="G31" t="n">
-        <v>135.2355344713482</v>
+        <v>135.2355344713484</v>
       </c>
       <c r="H31" t="n">
-        <v>111.2368524710047</v>
+        <v>111.2368524710049</v>
       </c>
       <c r="I31" t="n">
-        <v>55.51169970888158</v>
+        <v>55.51169970888176</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.61628144352455</v>
+        <v>42.9436420866811</v>
       </c>
       <c r="S31" t="n">
-        <v>153.2998404830081</v>
+        <v>153.2998404830083</v>
       </c>
       <c r="T31" t="n">
-        <v>187.6272930967507</v>
+        <v>187.6272930967509</v>
       </c>
       <c r="U31" t="n">
-        <v>255.7484082199906</v>
+        <v>255.7484082199908</v>
       </c>
       <c r="V31" t="n">
-        <v>221.6930697114014</v>
+        <v>221.6930697114016</v>
       </c>
       <c r="W31" t="n">
-        <v>256.0784247241644</v>
+        <v>256.0784247241646</v>
       </c>
       <c r="X31" t="n">
-        <v>195.2650817766105</v>
+        <v>195.2650817766107</v>
       </c>
       <c r="Y31" t="n">
-        <v>188.1400797396682</v>
+        <v>188.1400797396684</v>
       </c>
     </row>
     <row r="32">
@@ -3029,22 +3029,22 @@
         <v>352.2892680510539</v>
       </c>
       <c r="C32" t="n">
-        <v>334.8283181585808</v>
+        <v>334.8283181585809</v>
       </c>
       <c r="D32" t="n">
-        <v>324.2384680082562</v>
+        <v>324.2384680082563</v>
       </c>
       <c r="E32" t="n">
         <v>351.4857964598351</v>
       </c>
       <c r="F32" t="n">
-        <v>376.4314721292847</v>
+        <v>376.4314721292848</v>
       </c>
       <c r="G32" t="n">
-        <v>379.7064728015399</v>
+        <v>379.70647280154</v>
       </c>
       <c r="H32" t="n">
-        <v>256.2704720134993</v>
+        <v>256.2704720134994</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>61.1813350059432</v>
+        <v>61.18133500594327</v>
       </c>
       <c r="T32" t="n">
-        <v>170.0997481563399</v>
+        <v>170.09974815634</v>
       </c>
       <c r="U32" t="n">
-        <v>220.4889440073163</v>
+        <v>220.4889440073164</v>
       </c>
       <c r="V32" t="n">
-        <v>297.3076848577082</v>
+        <v>297.3076848577083</v>
       </c>
       <c r="W32" t="n">
         <v>318.7963951049863</v>
       </c>
       <c r="X32" t="n">
-        <v>339.2865270660423</v>
+        <v>339.2865270660424</v>
       </c>
       <c r="Y32" t="n">
-        <v>355.7933650436269</v>
+        <v>355.793365043627</v>
       </c>
     </row>
     <row r="33">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>149.3874065695106</v>
+        <v>149.3874065695107</v>
       </c>
       <c r="C34" t="n">
-        <v>136.8022474862011</v>
+        <v>136.8022474862012</v>
       </c>
       <c r="D34" t="n">
-        <v>96.84353876262982</v>
+        <v>118.1708994057857</v>
       </c>
       <c r="E34" t="n">
         <v>115.9893890341425</v>
@@ -3199,13 +3199,13 @@
         <v>114.9764744105046</v>
       </c>
       <c r="G34" t="n">
-        <v>135.2355344713481</v>
+        <v>135.2355344713482</v>
       </c>
       <c r="H34" t="n">
         <v>111.2368524710047</v>
       </c>
       <c r="I34" t="n">
-        <v>55.51169970888152</v>
+        <v>55.51169970888158</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.94364208668086</v>
+        <v>42.94364208668092</v>
       </c>
       <c r="S34" t="n">
-        <v>153.299840483008</v>
+        <v>153.2998404830081</v>
       </c>
       <c r="T34" t="n">
-        <v>187.6272930967507</v>
+        <v>166.2999324535934</v>
       </c>
       <c r="U34" t="n">
-        <v>255.7484082199905</v>
+        <v>255.7484082199906</v>
       </c>
       <c r="V34" t="n">
-        <v>221.6930697114013</v>
+        <v>221.6930697114014</v>
       </c>
       <c r="W34" t="n">
-        <v>256.0784247241643</v>
+        <v>256.0784247241644</v>
       </c>
       <c r="X34" t="n">
         <v>195.2650817766105</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.1400797396681</v>
+        <v>188.1400797396682</v>
       </c>
     </row>
     <row r="35">
@@ -3433,10 +3433,10 @@
         <v>115.9893890341425</v>
       </c>
       <c r="F37" t="n">
-        <v>93.64911376734773</v>
+        <v>114.9764744105046</v>
       </c>
       <c r="G37" t="n">
-        <v>135.2355344713482</v>
+        <v>113.9081738281914</v>
       </c>
       <c r="H37" t="n">
         <v>111.2368524710047</v>
@@ -3560,7 +3560,7 @@
         <v>220.4889440073164</v>
       </c>
       <c r="V38" t="n">
-        <v>297.3076848577083</v>
+        <v>297.3076848577082</v>
       </c>
       <c r="W38" t="n">
         <v>318.7963951049863</v>
@@ -3569,7 +3569,7 @@
         <v>339.2865270660424</v>
       </c>
       <c r="Y38" t="n">
-        <v>355.793365043627</v>
+        <v>355.7933650436269</v>
       </c>
     </row>
     <row r="39">
@@ -3664,10 +3664,10 @@
         <v>136.8022474862012</v>
       </c>
       <c r="D40" t="n">
-        <v>118.1708994057857</v>
+        <v>96.84353876262941</v>
       </c>
       <c r="E40" t="n">
-        <v>94.6620283909852</v>
+        <v>115.9893890341425</v>
       </c>
       <c r="F40" t="n">
         <v>114.9764744105046</v>
@@ -3721,7 +3721,7 @@
         <v>221.6930697114014</v>
       </c>
       <c r="W40" t="n">
-        <v>256.0784247241644</v>
+        <v>256.0784247241643</v>
       </c>
       <c r="X40" t="n">
         <v>195.2650817766105</v>
@@ -3901,13 +3901,13 @@
         <v>136.8022474862012</v>
       </c>
       <c r="D43" t="n">
-        <v>96.84353876262895</v>
+        <v>118.1708994057857</v>
       </c>
       <c r="E43" t="n">
         <v>115.9893890341425</v>
       </c>
       <c r="F43" t="n">
-        <v>114.9764744105046</v>
+        <v>93.64911376734757</v>
       </c>
       <c r="G43" t="n">
         <v>135.2355344713482</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>352.289268051054</v>
+        <v>352.2892680510539</v>
       </c>
       <c r="C44" t="n">
         <v>334.8283181585809</v>
@@ -3983,7 +3983,7 @@
         <v>324.2384680082563</v>
       </c>
       <c r="E44" t="n">
-        <v>351.4857964598352</v>
+        <v>351.4857964598351</v>
       </c>
       <c r="F44" t="n">
         <v>376.4314721292848</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>61.1813350059433</v>
+        <v>61.18133500594327</v>
       </c>
       <c r="T44" t="n">
         <v>170.09974815634</v>
@@ -4034,16 +4034,16 @@
         <v>220.4889440073164</v>
       </c>
       <c r="V44" t="n">
-        <v>297.3076848577083</v>
+        <v>297.3076848577082</v>
       </c>
       <c r="W44" t="n">
-        <v>318.7963951049864</v>
+        <v>318.7963951049863</v>
       </c>
       <c r="X44" t="n">
         <v>339.2865270660424</v>
       </c>
       <c r="Y44" t="n">
-        <v>355.793365043627</v>
+        <v>355.7933650436269</v>
       </c>
     </row>
     <row r="45">
@@ -4144,16 +4144,16 @@
         <v>115.9893890341425</v>
       </c>
       <c r="F46" t="n">
-        <v>93.64911376734723</v>
+        <v>114.9764744105046</v>
       </c>
       <c r="G46" t="n">
-        <v>135.2355344713482</v>
+        <v>113.9081738281915</v>
       </c>
       <c r="H46" t="n">
         <v>111.2368524710047</v>
       </c>
       <c r="I46" t="n">
-        <v>55.51169970888159</v>
+        <v>55.51169970888158</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.94364208668095</v>
+        <v>42.94364208668092</v>
       </c>
       <c r="S46" t="n">
         <v>153.2998404830081</v>
@@ -4195,7 +4195,7 @@
         <v>221.6930697114014</v>
       </c>
       <c r="W46" t="n">
-        <v>256.0784247241644</v>
+        <v>256.0784247241643</v>
       </c>
       <c r="X46" t="n">
         <v>195.2650817766105</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.67591925719414</v>
+        <v>27.59621680543936</v>
       </c>
       <c r="C2" t="n">
-        <v>41.67591925719414</v>
+        <v>27.59621680543936</v>
       </c>
       <c r="D2" t="n">
-        <v>41.67591925719414</v>
+        <v>27.59621680543936</v>
       </c>
       <c r="E2" t="n">
-        <v>41.67591925719414</v>
+        <v>27.59621680543936</v>
       </c>
       <c r="F2" t="n">
-        <v>29.27451733768853</v>
+        <v>20.65071605623589</v>
       </c>
       <c r="G2" t="n">
-        <v>15.19481488593376</v>
+        <v>6.571013604481113</v>
       </c>
       <c r="H2" t="n">
-        <v>15.19481488593376</v>
+        <v>6.571013604481113</v>
       </c>
       <c r="I2" t="n">
         <v>1.115112434178978</v>
       </c>
       <c r="J2" t="n">
-        <v>14.91462880714383</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="K2" t="n">
         <v>14.91462880714383</v>
       </c>
       <c r="L2" t="n">
-        <v>19.11714856497165</v>
+        <v>14.91462880714383</v>
       </c>
       <c r="M2" t="n">
-        <v>28.15658896301921</v>
+        <v>23.9540692051914</v>
       </c>
       <c r="N2" t="n">
+        <v>37.75358557815625</v>
+      </c>
+      <c r="O2" t="n">
+        <v>37.75358557815625</v>
+      </c>
+      <c r="P2" t="n">
         <v>41.95610533598406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41.95610533598406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>55.75562170894892</v>
       </c>
       <c r="Q2" t="n">
         <v>55.75562170894892</v>
@@ -4364,16 +4364,16 @@
         <v>41.67591925719414</v>
       </c>
       <c r="V2" t="n">
-        <v>41.67591925719414</v>
+        <v>27.59621680543936</v>
       </c>
       <c r="W2" t="n">
-        <v>41.67591925719414</v>
+        <v>27.59621680543936</v>
       </c>
       <c r="X2" t="n">
-        <v>41.67591925719414</v>
+        <v>27.59621680543936</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.67591925719414</v>
+        <v>27.59621680543936</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.67591925719414</v>
+        <v>43.35421978944331</v>
       </c>
       <c r="C3" t="n">
-        <v>41.67591925719414</v>
+        <v>43.35421978944331</v>
       </c>
       <c r="D3" t="n">
-        <v>41.67591925719414</v>
+        <v>43.35421978944331</v>
       </c>
       <c r="E3" t="n">
-        <v>27.59621680543936</v>
+        <v>43.35421978944331</v>
       </c>
       <c r="F3" t="n">
-        <v>27.59621680543936</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="G3" t="n">
-        <v>27.59621680543936</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="H3" t="n">
         <v>15.19481488593376</v>
@@ -4416,10 +4416,10 @@
         <v>14.91462880714383</v>
       </c>
       <c r="M3" t="n">
-        <v>28.71414518010869</v>
+        <v>22.84122271046062</v>
       </c>
       <c r="N3" t="n">
-        <v>42.51366155307355</v>
+        <v>36.64073908342547</v>
       </c>
       <c r="O3" t="n">
         <v>50.44025545639033</v>
@@ -4431,28 +4431,28 @@
         <v>55.75562170894892</v>
       </c>
       <c r="R3" t="n">
-        <v>41.67591925719414</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="S3" t="n">
-        <v>41.67591925719414</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="T3" t="n">
-        <v>41.67591925719414</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="U3" t="n">
-        <v>41.67591925719414</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="V3" t="n">
-        <v>41.67591925719414</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="W3" t="n">
-        <v>41.67591925719414</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="X3" t="n">
-        <v>41.67591925719414</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="Y3" t="n">
-        <v>41.67591925719414</v>
+        <v>55.75562170894892</v>
       </c>
     </row>
     <row r="4">
@@ -4465,43 +4465,43 @@
         <v>41.67591925719414</v>
       </c>
       <c r="C4" t="n">
-        <v>41.67591925719414</v>
+        <v>27.59621680543936</v>
       </c>
       <c r="D4" t="n">
-        <v>41.67591925719414</v>
+        <v>13.51651435368458</v>
       </c>
       <c r="E4" t="n">
-        <v>41.67591925719414</v>
+        <v>13.51651435368458</v>
       </c>
       <c r="F4" t="n">
-        <v>27.59621680543936</v>
+        <v>13.51651435368458</v>
       </c>
       <c r="G4" t="n">
-        <v>27.59621680543936</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="H4" t="n">
-        <v>15.19481488593376</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="I4" t="n">
-        <v>15.19481488593376</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="J4" t="n">
         <v>1.115112434178978</v>
       </c>
       <c r="K4" t="n">
+        <v>1.115112434178978</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.115112434178978</v>
+      </c>
+      <c r="M4" t="n">
         <v>14.91462880714383</v>
       </c>
-      <c r="L4" t="n">
-        <v>14.91462880714383</v>
-      </c>
-      <c r="M4" t="n">
-        <v>28.15658896301921</v>
-      </c>
       <c r="N4" t="n">
-        <v>41.95610533598406</v>
+        <v>28.71414518010869</v>
       </c>
       <c r="O4" t="n">
-        <v>41.95610533598406</v>
+        <v>42.51366155307355</v>
       </c>
       <c r="P4" t="n">
         <v>55.75562170894892</v>
@@ -4547,19 +4547,19 @@
         <v>115.0727317615872</v>
       </c>
       <c r="D5" t="n">
-        <v>115.0727317615872</v>
+        <v>59.25338347494863</v>
       </c>
       <c r="E5" t="n">
-        <v>115.0727317615872</v>
+        <v>25.21217157570524</v>
       </c>
       <c r="F5" t="n">
-        <v>108.1272310123838</v>
+        <v>18.26667082650177</v>
       </c>
       <c r="G5" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="H5" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="I5" t="n">
         <v>4.420892384301778</v>
@@ -4580,7 +4580,7 @@
         <v>129.6802863356835</v>
       </c>
       <c r="O5" t="n">
-        <v>168.0047511329824</v>
+        <v>184.388829591418</v>
       </c>
       <c r="P5" t="n">
         <v>221.0446192150889</v>
@@ -4607,10 +4607,10 @@
         <v>170.8920800482259</v>
       </c>
       <c r="X5" t="n">
-        <v>115.0727317615872</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="Y5" t="n">
-        <v>115.0727317615872</v>
+        <v>170.8920800482259</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.2252709284503</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="C6" t="n">
+        <v>171.8789372442176</v>
+      </c>
+      <c r="D6" t="n">
+        <v>171.8789372442176</v>
+      </c>
+      <c r="E6" t="n">
         <v>116.059588957579</v>
       </c>
-      <c r="D6" t="n">
-        <v>116.059588957579</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>60.2402406709404</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4.420892384301778</v>
       </c>
       <c r="G6" t="n">
         <v>4.420892384301778</v>
@@ -4677,19 +4677,19 @@
         <v>221.0446192150889</v>
       </c>
       <c r="U6" t="n">
-        <v>221.0446192150889</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="V6" t="n">
-        <v>221.0446192150889</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="W6" t="n">
-        <v>221.0446192150889</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="X6" t="n">
-        <v>221.0446192150889</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="Y6" t="n">
-        <v>221.0446192150889</v>
+        <v>171.8789372442176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.90471878495146</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="C7" t="n">
-        <v>82.90471878495146</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="D7" t="n">
-        <v>82.90471878495146</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="E7" t="n">
-        <v>27.08537049831283</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="F7" t="n">
-        <v>4.420892384301778</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="G7" t="n">
-        <v>4.420892384301778</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="H7" t="n">
-        <v>4.420892384301778</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="I7" t="n">
-        <v>4.420892384301778</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="J7" t="n">
         <v>4.420892384301778</v>
@@ -4729,16 +4729,16 @@
         <v>4.420892384301778</v>
       </c>
       <c r="L7" t="n">
-        <v>56.91898944788542</v>
+        <v>59.12943564003628</v>
       </c>
       <c r="M7" t="n">
         <v>111.6275327036199</v>
       </c>
       <c r="N7" t="n">
-        <v>111.6275327036199</v>
+        <v>166.3360759593544</v>
       </c>
       <c r="O7" t="n">
-        <v>166.3360759593544</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="P7" t="n">
         <v>221.0446192150889</v>
@@ -4753,22 +4753,22 @@
         <v>194.5434153582287</v>
       </c>
       <c r="T7" t="n">
-        <v>194.5434153582287</v>
+        <v>138.7240670715901</v>
       </c>
       <c r="U7" t="n">
-        <v>194.5434153582287</v>
+        <v>138.7240670715901</v>
       </c>
       <c r="V7" t="n">
-        <v>194.5434153582287</v>
+        <v>103.4349783481248</v>
       </c>
       <c r="W7" t="n">
-        <v>194.5434153582287</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="X7" t="n">
-        <v>138.7240670715901</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="Y7" t="n">
-        <v>82.90471878495146</v>
+        <v>47.61563006148614</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>418.5145477870886</v>
+        <v>305.2694365497921</v>
       </c>
       <c r="C8" t="n">
-        <v>418.5145477870886</v>
+        <v>192.0243253124955</v>
       </c>
       <c r="D8" t="n">
-        <v>348.7043465218836</v>
+        <v>192.0243253124955</v>
       </c>
       <c r="E8" t="n">
-        <v>235.459235284587</v>
+        <v>135.7380678296014</v>
       </c>
       <c r="F8" t="n">
-        <v>122.2141240472905</v>
+        <v>22.4929565923048</v>
       </c>
       <c r="G8" t="n">
         <v>8.969012809993888</v>
@@ -4829,25 +4829,25 @@
         <v>418.5145477870886</v>
       </c>
       <c r="S8" t="n">
-        <v>418.5145477870886</v>
+        <v>305.2694365497921</v>
       </c>
       <c r="T8" t="n">
-        <v>418.5145477870886</v>
+        <v>305.2694365497921</v>
       </c>
       <c r="U8" t="n">
-        <v>418.5145477870886</v>
+        <v>305.2694365497921</v>
       </c>
       <c r="V8" t="n">
-        <v>418.5145477870886</v>
+        <v>305.2694365497921</v>
       </c>
       <c r="W8" t="n">
-        <v>418.5145477870886</v>
+        <v>305.2694365497921</v>
       </c>
       <c r="X8" t="n">
-        <v>418.5145477870886</v>
+        <v>305.2694365497921</v>
       </c>
       <c r="Y8" t="n">
-        <v>418.5145477870886</v>
+        <v>305.2694365497921</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71.77195014387318</v>
+        <v>335.2055292623978</v>
       </c>
       <c r="C9" t="n">
-        <v>71.77195014387318</v>
+        <v>335.2055292623978</v>
       </c>
       <c r="D9" t="n">
-        <v>71.77195014387318</v>
+        <v>335.2055292623978</v>
       </c>
       <c r="E9" t="n">
-        <v>71.77195014387318</v>
+        <v>221.9604180251013</v>
       </c>
       <c r="F9" t="n">
-        <v>71.77195014387318</v>
+        <v>112.3476120565112</v>
       </c>
       <c r="G9" t="n">
-        <v>63.65296969337254</v>
+        <v>112.3476120565112</v>
       </c>
       <c r="H9" t="n">
-        <v>63.65296969337254</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="I9" t="n">
         <v>8.969012809993888</v>
@@ -4884,19 +4884,19 @@
         <v>8.969012809993888</v>
       </c>
       <c r="K9" t="n">
-        <v>8.969012809993888</v>
+        <v>36.2216681853455</v>
       </c>
       <c r="L9" t="n">
-        <v>65.44790611672046</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>176.4394396403948</v>
+        <v>230.1803012028976</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640692</v>
+        <v>341.1718347265719</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953192</v>
+        <v>441.2239361578219</v>
       </c>
       <c r="P9" t="n">
         <v>448.4506404996944</v>
@@ -4905,28 +4905,28 @@
         <v>448.4506404996944</v>
       </c>
       <c r="R9" t="n">
-        <v>411.5072838557629</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="S9" t="n">
-        <v>298.2621726184663</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="T9" t="n">
-        <v>185.0170613811698</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="U9" t="n">
-        <v>71.77195014387318</v>
+        <v>335.2055292623978</v>
       </c>
       <c r="V9" t="n">
-        <v>71.77195014387318</v>
+        <v>335.2055292623978</v>
       </c>
       <c r="W9" t="n">
-        <v>71.77195014387318</v>
+        <v>335.2055292623978</v>
       </c>
       <c r="X9" t="n">
-        <v>71.77195014387318</v>
+        <v>335.2055292623978</v>
       </c>
       <c r="Y9" t="n">
-        <v>71.77195014387318</v>
+        <v>335.2055292623978</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>320.7928375242963</v>
+        <v>434.0379487615928</v>
       </c>
       <c r="C10" t="n">
         <v>320.7928375242963</v>
       </c>
       <c r="D10" t="n">
-        <v>320.7928375242963</v>
+        <v>268.4474417764944</v>
       </c>
       <c r="E10" t="n">
-        <v>320.7928375242963</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="F10" t="n">
-        <v>320.7928375242963</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="G10" t="n">
-        <v>268.4474417764944</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="H10" t="n">
-        <v>155.2023305391979</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="I10" t="n">
         <v>41.9572193019013</v>
@@ -4966,16 +4966,16 @@
         <v>8.969012809993888</v>
       </c>
       <c r="L10" t="n">
-        <v>15.36860208584605</v>
+        <v>115.4760399286713</v>
       </c>
       <c r="M10" t="n">
-        <v>126.3601356095204</v>
+        <v>226.4675734523456</v>
       </c>
       <c r="N10" t="n">
-        <v>237.3516691331948</v>
+        <v>337.45910697602</v>
       </c>
       <c r="O10" t="n">
-        <v>348.3432026568692</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="P10" t="n">
         <v>448.4506404996944</v>
@@ -4984,28 +4984,28 @@
         <v>434.0379487615928</v>
       </c>
       <c r="R10" t="n">
-        <v>320.7928375242963</v>
+        <v>434.0379487615928</v>
       </c>
       <c r="S10" t="n">
-        <v>320.7928375242963</v>
+        <v>434.0379487615928</v>
       </c>
       <c r="T10" t="n">
-        <v>320.7928375242963</v>
+        <v>434.0379487615928</v>
       </c>
       <c r="U10" t="n">
-        <v>320.7928375242963</v>
+        <v>434.0379487615928</v>
       </c>
       <c r="V10" t="n">
-        <v>320.7928375242963</v>
+        <v>434.0379487615928</v>
       </c>
       <c r="W10" t="n">
-        <v>320.7928375242963</v>
+        <v>434.0379487615928</v>
       </c>
       <c r="X10" t="n">
-        <v>320.7928375242963</v>
+        <v>434.0379487615928</v>
       </c>
       <c r="Y10" t="n">
-        <v>320.7928375242963</v>
+        <v>434.0379487615928</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1384.829779622646</v>
+        <v>1632.511388127728</v>
       </c>
       <c r="C11" t="n">
-        <v>1015.867262682234</v>
+        <v>1263.548871187316</v>
       </c>
       <c r="D11" t="n">
-        <v>657.601564075484</v>
+        <v>905.2831725805661</v>
       </c>
       <c r="E11" t="n">
-        <v>519.4949199823225</v>
+        <v>519.4949199823218</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.03470992366</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>2535.03470992366</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X11" t="n">
-        <v>2161.56895166258</v>
+        <v>2409.250560167661</v>
       </c>
       <c r="Y11" t="n">
-        <v>1771.429619686768</v>
+        <v>2019.111228191849</v>
       </c>
     </row>
     <row r="12">
@@ -5109,31 +5109,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362.8459426266614</v>
+        <v>372.8549345700857</v>
       </c>
       <c r="C13" t="n">
-        <v>362.8459426266614</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D13" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E13" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760401</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
         <v>1849.684251935977</v>
@@ -5224,25 +5224,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
-        <v>1826.481062615652</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T13" t="n">
-        <v>1826.481062615652</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U13" t="n">
-        <v>1537.378195741296</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V13" t="n">
-        <v>1282.693707535409</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W13" t="n">
-        <v>993.2765374984485</v>
+        <v>782.4929502983427</v>
       </c>
       <c r="X13" t="n">
-        <v>765.2869866004312</v>
+        <v>554.5033994003254</v>
       </c>
       <c r="Y13" t="n">
-        <v>544.4944074569011</v>
+        <v>554.5033994003254</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1714.98079062037</v>
+        <v>2064.107225797983</v>
       </c>
       <c r="C14" t="n">
-        <v>1346.018273679958</v>
+        <v>1695.144708857571</v>
       </c>
       <c r="D14" t="n">
-        <v>1346.018273679958</v>
+        <v>1336.879010250821</v>
       </c>
       <c r="E14" t="n">
-        <v>960.2300210817139</v>
+        <v>951.0907576525778</v>
       </c>
       <c r="F14" t="n">
-        <v>549.2441162921064</v>
+        <v>540.1048528629702</v>
       </c>
       <c r="G14" t="n">
-        <v>134.8142685213361</v>
+        <v>125.6750050922002</v>
       </c>
       <c r="H14" t="n">
-        <v>82.02616908782959</v>
+        <v>82.02616908782954</v>
       </c>
       <c r="I14" t="n">
-        <v>82.02616908782959</v>
+        <v>82.02616908782954</v>
       </c>
       <c r="J14" t="n">
-        <v>324.3600266809066</v>
+        <v>324.3600266809071</v>
       </c>
       <c r="K14" t="n">
-        <v>738.2941788867989</v>
+        <v>738.2941788867997</v>
       </c>
       <c r="L14" t="n">
-        <v>1288.717859117674</v>
+        <v>1288.717859117675</v>
       </c>
       <c r="M14" t="n">
         <v>1932.839696107676</v>
       </c>
       <c r="N14" t="n">
-        <v>2591.997906207656</v>
+        <v>2591.997906207657</v>
       </c>
       <c r="O14" t="n">
         <v>3201.087051231391</v>
       </c>
       <c r="P14" t="n">
-        <v>3686.429543874788</v>
+        <v>3686.429543874787</v>
       </c>
       <c r="Q14" t="n">
-        <v>4002.728796669255</v>
+        <v>4002.728796669253</v>
       </c>
       <c r="R14" t="n">
-        <v>4101.308454391479</v>
+        <v>4101.308454391477</v>
       </c>
       <c r="S14" t="n">
-        <v>4005.661087749289</v>
+        <v>4101.308454391477</v>
       </c>
       <c r="T14" t="n">
-        <v>3802.496332070492</v>
+        <v>3898.143698712681</v>
       </c>
       <c r="U14" t="n">
-        <v>3549.017263535068</v>
+        <v>3898.143698712681</v>
       </c>
       <c r="V14" t="n">
-        <v>3217.954376191497</v>
+        <v>3567.08081136911</v>
       </c>
       <c r="W14" t="n">
-        <v>2865.185720921383</v>
+        <v>3214.312156098996</v>
       </c>
       <c r="X14" t="n">
-        <v>2491.719962660303</v>
+        <v>2840.846397837916</v>
       </c>
       <c r="Y14" t="n">
-        <v>2101.580630684492</v>
+        <v>2450.707065862104</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>89.19570933570226</v>
       </c>
       <c r="I15" t="n">
-        <v>82.02616908782959</v>
+        <v>82.02616908782954</v>
       </c>
       <c r="J15" t="n">
-        <v>207.5407075601499</v>
+        <v>207.5407075601498</v>
       </c>
       <c r="K15" t="n">
-        <v>500.2198701958224</v>
+        <v>500.2198701958221</v>
       </c>
       <c r="L15" t="n">
-        <v>940.0856643666748</v>
+        <v>940.0856643666743</v>
       </c>
       <c r="M15" t="n">
-        <v>1472.74516720716</v>
+        <v>940.0856643666743</v>
       </c>
       <c r="N15" t="n">
-        <v>2033.911227025762</v>
+        <v>1501.251724185277</v>
       </c>
       <c r="O15" t="n">
-        <v>2525.048743872462</v>
+        <v>1992.389241031976</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.048743872462</v>
+        <v>2356.469420414115</v>
       </c>
       <c r="Q15" t="n">
-        <v>2536.345374518901</v>
+        <v>2557.126245524782</v>
       </c>
       <c r="R15" t="n">
         <v>2557.126245524782</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>629.6654727646942</v>
+        <v>856.8343688105296</v>
       </c>
       <c r="C16" t="n">
-        <v>629.6654727646942</v>
+        <v>687.8981858826229</v>
       </c>
       <c r="D16" t="n">
-        <v>629.6654727646942</v>
+        <v>687.898185882623</v>
       </c>
       <c r="E16" t="n">
-        <v>481.7523791823011</v>
+        <v>539.98509230023</v>
       </c>
       <c r="F16" t="n">
-        <v>481.7523791823011</v>
+        <v>393.0951448023199</v>
       </c>
       <c r="G16" t="n">
-        <v>314.33779186421</v>
+        <v>225.6805574842289</v>
       </c>
       <c r="H16" t="n">
-        <v>170.6834034678105</v>
+        <v>82.02616908782954</v>
       </c>
       <c r="I16" t="n">
-        <v>82.02616908782959</v>
+        <v>82.02616908782954</v>
       </c>
       <c r="J16" t="n">
-        <v>147.1224809553247</v>
+        <v>147.1224809553248</v>
       </c>
       <c r="K16" t="n">
-        <v>383.9325548640506</v>
+        <v>383.9325548640509</v>
       </c>
       <c r="L16" t="n">
-        <v>742.4943532153153</v>
+        <v>742.4943532153155</v>
       </c>
       <c r="M16" t="n">
         <v>1130.936618597391</v>
@@ -5452,34 +5452,34 @@
         <v>1854.838759495257</v>
       </c>
       <c r="P16" t="n">
-        <v>2121.614940784146</v>
+        <v>2121.614940784147</v>
       </c>
       <c r="Q16" t="n">
         <v>2222.881860460227</v>
       </c>
       <c r="R16" t="n">
-        <v>2222.881860460227</v>
+        <v>2146.012140248311</v>
       </c>
       <c r="S16" t="n">
-        <v>2036.219375576899</v>
+        <v>2146.012140248311</v>
       </c>
       <c r="T16" t="n">
-        <v>1815.6843708226</v>
+        <v>1925.477135494013</v>
       </c>
       <c r="U16" t="n">
-        <v>1549.513237673442</v>
+        <v>1925.477135494013</v>
       </c>
       <c r="V16" t="n">
-        <v>1549.513237673442</v>
+        <v>1670.792647288126</v>
       </c>
       <c r="W16" t="n">
-        <v>1260.096067636481</v>
+        <v>1487.264963682316</v>
       </c>
       <c r="X16" t="n">
-        <v>1032.106516738464</v>
+        <v>1259.275412784299</v>
       </c>
       <c r="Y16" t="n">
-        <v>811.3139375949339</v>
+        <v>1038.482833640769</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1960.997547084425</v>
+        <v>2126.948371169277</v>
       </c>
       <c r="C17" t="n">
-        <v>1622.78712470202</v>
+        <v>1788.737948786872</v>
       </c>
       <c r="D17" t="n">
-        <v>1295.273520653277</v>
+        <v>1461.224344738129</v>
       </c>
       <c r="E17" t="n">
         <v>1106.188186697891</v>
@@ -5504,61 +5504,61 @@
         <v>725.9543764662903</v>
       </c>
       <c r="G17" t="n">
-        <v>342.276623253527</v>
+        <v>342.2766232535269</v>
       </c>
       <c r="H17" t="n">
-        <v>82.02616908782963</v>
+        <v>82.02616908782954</v>
       </c>
       <c r="I17" t="n">
-        <v>82.02616908782963</v>
+        <v>82.02616908782954</v>
       </c>
       <c r="J17" t="n">
-        <v>324.360026680907</v>
+        <v>324.3600266809071</v>
       </c>
       <c r="K17" t="n">
-        <v>738.2941788867997</v>
+        <v>738.2941788867995</v>
       </c>
       <c r="L17" t="n">
-        <v>1288.717859117675</v>
+        <v>1288.717859117674</v>
       </c>
       <c r="M17" t="n">
-        <v>1932.839696107677</v>
+        <v>1932.839696107676</v>
       </c>
       <c r="N17" t="n">
-        <v>2591.997906207658</v>
+        <v>2591.997906207656</v>
       </c>
       <c r="O17" t="n">
-        <v>3201.087051231393</v>
+        <v>3201.08705123139</v>
       </c>
       <c r="P17" t="n">
-        <v>3686.42954387479</v>
+        <v>3686.429543874786</v>
       </c>
       <c r="Q17" t="n">
-        <v>4002.728796669256</v>
+        <v>4002.728796669253</v>
       </c>
       <c r="R17" t="n">
-        <v>4101.308454391481</v>
+        <v>4101.308454391477</v>
       </c>
       <c r="S17" t="n">
-        <v>4036.413182307298</v>
+        <v>4036.413182307294</v>
       </c>
       <c r="T17" t="n">
-        <v>3864.000521186508</v>
+        <v>4029.95134527136</v>
       </c>
       <c r="U17" t="n">
-        <v>3641.27354720909</v>
+        <v>3807.224371293942</v>
       </c>
       <c r="V17" t="n">
-        <v>3340.962754423526</v>
+        <v>3506.913578508378</v>
       </c>
       <c r="W17" t="n">
-        <v>3018.946193711419</v>
+        <v>3184.897017796271</v>
       </c>
       <c r="X17" t="n">
-        <v>2676.232530008346</v>
+        <v>2842.183354093198</v>
       </c>
       <c r="Y17" t="n">
-        <v>2316.84529259054</v>
+        <v>2482.796116675393</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5557308457918</v>
+        <v>941.555730845792</v>
       </c>
       <c r="C18" t="n">
-        <v>767.1027015646648</v>
+        <v>767.102701564665</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1682919034135</v>
+        <v>618.1682919034138</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9308368979581</v>
+        <v>458.9308368979582</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3962789248431</v>
+        <v>312.3962789248432</v>
       </c>
       <c r="G18" t="n">
         <v>176.3770013444592</v>
@@ -5589,28 +5589,28 @@
         <v>89.19570933570226</v>
       </c>
       <c r="I18" t="n">
-        <v>82.02616908782963</v>
+        <v>82.02616908782954</v>
       </c>
       <c r="J18" t="n">
-        <v>207.5407075601501</v>
+        <v>207.5407075601498</v>
       </c>
       <c r="K18" t="n">
-        <v>500.2198701958228</v>
+        <v>447.9299731096335</v>
       </c>
       <c r="L18" t="n">
-        <v>940.0856643666755</v>
+        <v>887.7957672804858</v>
       </c>
       <c r="M18" t="n">
-        <v>1472.745167207161</v>
+        <v>1420.455270120971</v>
       </c>
       <c r="N18" t="n">
-        <v>1490.483813092871</v>
+        <v>1981.621329939573</v>
       </c>
       <c r="O18" t="n">
-        <v>1981.621329939572</v>
+        <v>1981.621329939573</v>
       </c>
       <c r="P18" t="n">
-        <v>2356.469420414114</v>
+        <v>2356.469420414115</v>
       </c>
       <c r="Q18" t="n">
         <v>2557.126245524782</v>
@@ -5631,7 +5631,7 @@
         <v>1779.620223564548</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.382866836346</v>
+        <v>1525.382866836347</v>
       </c>
       <c r="X18" t="n">
         <v>1317.531366630814</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>793.0851273436554</v>
+        <v>793.0851273436535</v>
       </c>
       <c r="C19" t="n">
         <v>742.1594923269001</v>
@@ -5656,10 +5656,10 @@
         <v>622.7949474725712</v>
       </c>
       <c r="E19" t="n">
-        <v>505.6339484481847</v>
+        <v>505.6339484481848</v>
       </c>
       <c r="F19" t="n">
-        <v>389.496095508281</v>
+        <v>389.4960955082811</v>
       </c>
       <c r="G19" t="n">
         <v>252.8336027481966</v>
@@ -5668,55 +5668,55 @@
         <v>139.9313089098038</v>
       </c>
       <c r="I19" t="n">
-        <v>82.02616908782963</v>
+        <v>82.02616908782954</v>
       </c>
       <c r="J19" t="n">
-        <v>177.2626088316272</v>
+        <v>177.262608831627</v>
       </c>
       <c r="K19" t="n">
-        <v>444.2128106166557</v>
+        <v>444.2128106166552</v>
       </c>
       <c r="L19" t="n">
-        <v>832.9147368442229</v>
+        <v>832.9147368442221</v>
       </c>
       <c r="M19" t="n">
-        <v>1251.497130102601</v>
+        <v>1251.4971301026</v>
       </c>
       <c r="N19" t="n">
-        <v>1666.2778509232</v>
+        <v>1666.277850923198</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.679526753072</v>
+        <v>2035.67952675307</v>
       </c>
       <c r="P19" t="n">
-        <v>2332.595835918264</v>
+        <v>2332.595835918262</v>
       </c>
       <c r="Q19" t="n">
-        <v>2464.002883470647</v>
+        <v>2464.002883470645</v>
       </c>
       <c r="R19" t="n">
-        <v>2417.885257816738</v>
+        <v>2417.885257816735</v>
       </c>
       <c r="S19" t="n">
-        <v>2261.974867491416</v>
+        <v>2261.974867491414</v>
       </c>
       <c r="T19" t="n">
-        <v>2072.191957295124</v>
+        <v>2072.191957295121</v>
       </c>
       <c r="U19" t="n">
-        <v>1813.856907668257</v>
+        <v>1813.856907668255</v>
       </c>
       <c r="V19" t="n">
-        <v>1589.924514020377</v>
+        <v>1589.924514020374</v>
       </c>
       <c r="W19" t="n">
-        <v>1331.259438541422</v>
+        <v>1331.25943854142</v>
       </c>
       <c r="X19" t="n">
-        <v>1134.021982201412</v>
+        <v>1134.02198220141</v>
       </c>
       <c r="Y19" t="n">
-        <v>943.9814976158883</v>
+        <v>943.9814976158865</v>
       </c>
     </row>
     <row r="20">
@@ -5726,67 +5726,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2126.948371169278</v>
+        <v>2126.948371169277</v>
       </c>
       <c r="C20" t="n">
-        <v>1788.737948786873</v>
+        <v>1788.737948786872</v>
       </c>
       <c r="D20" t="n">
         <v>1461.224344738129</v>
       </c>
       <c r="E20" t="n">
-        <v>1106.188186697892</v>
+        <v>1106.188186697891</v>
       </c>
       <c r="F20" t="n">
-        <v>725.9543764662908</v>
+        <v>725.9543764662903</v>
       </c>
       <c r="G20" t="n">
-        <v>342.276623253527</v>
+        <v>342.2766232535269</v>
       </c>
       <c r="H20" t="n">
-        <v>82.02616908782963</v>
+        <v>82.02616908782954</v>
       </c>
       <c r="I20" t="n">
-        <v>82.02616908782963</v>
+        <v>82.02616908782954</v>
       </c>
       <c r="J20" t="n">
-        <v>324.360026680907</v>
+        <v>324.3600266809062</v>
       </c>
       <c r="K20" t="n">
-        <v>738.2941788867997</v>
+        <v>738.2941788867984</v>
       </c>
       <c r="L20" t="n">
-        <v>1288.717859117675</v>
+        <v>1288.717859117673</v>
       </c>
       <c r="M20" t="n">
-        <v>1932.839696107677</v>
+        <v>1932.839696107675</v>
       </c>
       <c r="N20" t="n">
-        <v>2591.997906207658</v>
+        <v>2591.997906207655</v>
       </c>
       <c r="O20" t="n">
-        <v>3201.087051231393</v>
+        <v>3201.08705123139</v>
       </c>
       <c r="P20" t="n">
-        <v>3686.42954387479</v>
+        <v>3686.429543874786</v>
       </c>
       <c r="Q20" t="n">
-        <v>4002.728796669256</v>
+        <v>4002.728796669253</v>
       </c>
       <c r="R20" t="n">
-        <v>4101.308454391481</v>
+        <v>4101.308454391477</v>
       </c>
       <c r="S20" t="n">
-        <v>4036.413182307298</v>
+        <v>4036.413182307294</v>
       </c>
       <c r="T20" t="n">
-        <v>3864.000521186508</v>
+        <v>3864.000521186504</v>
       </c>
       <c r="U20" t="n">
-        <v>3807.224371293943</v>
+        <v>3641.273547209086</v>
       </c>
       <c r="V20" t="n">
-        <v>3506.913578508379</v>
+        <v>3340.962754423522</v>
       </c>
       <c r="W20" t="n">
         <v>3184.897017796271</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5557308457918</v>
+        <v>941.555730845792</v>
       </c>
       <c r="C21" t="n">
-        <v>767.1027015646648</v>
+        <v>767.102701564665</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1682919034135</v>
+        <v>618.1682919034138</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9308368979581</v>
+        <v>458.9308368979582</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3962789248431</v>
+        <v>312.3962789248432</v>
       </c>
       <c r="G21" t="n">
         <v>176.3770013444592</v>
@@ -5826,28 +5826,28 @@
         <v>89.19570933570226</v>
       </c>
       <c r="I21" t="n">
-        <v>82.02616908782963</v>
+        <v>82.02616908782954</v>
       </c>
       <c r="J21" t="n">
-        <v>207.5407075601501</v>
+        <v>82.02616908782954</v>
       </c>
       <c r="K21" t="n">
-        <v>500.2198701958228</v>
+        <v>374.7053317235018</v>
       </c>
       <c r="L21" t="n">
-        <v>940.0856643666755</v>
+        <v>814.5711258943541</v>
       </c>
       <c r="M21" t="n">
-        <v>1472.745167207161</v>
+        <v>1347.230628734839</v>
       </c>
       <c r="N21" t="n">
-        <v>1490.483813092871</v>
+        <v>1908.396688553441</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.621329939572</v>
+        <v>2399.534205400141</v>
       </c>
       <c r="P21" t="n">
-        <v>2356.469420414114</v>
+        <v>2557.126245524782</v>
       </c>
       <c r="Q21" t="n">
         <v>2557.126245524782</v>
@@ -5868,7 +5868,7 @@
         <v>1779.620223564548</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.382866836346</v>
+        <v>1525.382866836347</v>
       </c>
       <c r="X21" t="n">
         <v>1317.531366630814</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>793.0851273436555</v>
+        <v>839.2027529975635</v>
       </c>
       <c r="C22" t="n">
-        <v>654.9010389737552</v>
+        <v>701.0186646276633</v>
       </c>
       <c r="D22" t="n">
-        <v>535.5364941194263</v>
+        <v>581.6541197733343</v>
       </c>
       <c r="E22" t="n">
-        <v>418.3754950950399</v>
+        <v>464.4931207489478</v>
       </c>
       <c r="F22" t="n">
-        <v>389.4960955082811</v>
+        <v>348.3552678090442</v>
       </c>
       <c r="G22" t="n">
         <v>252.8336027481966</v>
@@ -5905,55 +5905,55 @@
         <v>139.9313089098038</v>
       </c>
       <c r="I22" t="n">
-        <v>82.02616908782963</v>
+        <v>82.02616908782954</v>
       </c>
       <c r="J22" t="n">
-        <v>177.2626088316272</v>
+        <v>177.2626088316269</v>
       </c>
       <c r="K22" t="n">
-        <v>444.2128106166554</v>
+        <v>444.2128106166552</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9147368442226</v>
+        <v>832.9147368442221</v>
       </c>
       <c r="M22" t="n">
-        <v>1251.497130102601</v>
+        <v>1251.4971301026</v>
       </c>
       <c r="N22" t="n">
-        <v>1666.277850923199</v>
+        <v>1666.277850923198</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.679526753072</v>
+        <v>2035.679526753071</v>
       </c>
       <c r="P22" t="n">
-        <v>2332.595835918264</v>
+        <v>2332.595835918262</v>
       </c>
       <c r="Q22" t="n">
-        <v>2464.002883470647</v>
+        <v>2464.002883470645</v>
       </c>
       <c r="R22" t="n">
-        <v>2417.885257816737</v>
+        <v>2464.002883470645</v>
       </c>
       <c r="S22" t="n">
-        <v>2261.974867491415</v>
+        <v>2308.092493145324</v>
       </c>
       <c r="T22" t="n">
-        <v>2072.191957295123</v>
+        <v>2118.309582949031</v>
       </c>
       <c r="U22" t="n">
-        <v>1813.856907668256</v>
+        <v>1859.974533322165</v>
       </c>
       <c r="V22" t="n">
-        <v>1589.924514020376</v>
+        <v>1636.042139674284</v>
       </c>
       <c r="W22" t="n">
-        <v>1331.259438541422</v>
+        <v>1377.377064195331</v>
       </c>
       <c r="X22" t="n">
-        <v>1134.021982201412</v>
+        <v>1180.13960785532</v>
       </c>
       <c r="Y22" t="n">
-        <v>943.9814976158884</v>
+        <v>990.0991232697966</v>
       </c>
     </row>
     <row r="23">
@@ -5969,22 +5969,22 @@
         <v>1790.490737086629</v>
       </c>
       <c r="D23" t="n">
-        <v>1462.977133037886</v>
+        <v>1462.977133037885</v>
       </c>
       <c r="E23" t="n">
         <v>1107.940974997648</v>
       </c>
       <c r="F23" t="n">
-        <v>727.7071647660478</v>
+        <v>727.7071647660468</v>
       </c>
       <c r="G23" t="n">
         <v>344.1652730473199</v>
       </c>
       <c r="H23" t="n">
-        <v>85.30621040742146</v>
+        <v>85.30621040742145</v>
       </c>
       <c r="I23" t="n">
-        <v>85.30621040742146</v>
+        <v>85.30621040742145</v>
       </c>
       <c r="J23" t="n">
         <v>338.9416740978172</v>
@@ -6002,37 +6002,37 @@
         <v>2691.672080494185</v>
       </c>
       <c r="O23" t="n">
-        <v>3323.196825268487</v>
+        <v>3323.196825268486</v>
       </c>
       <c r="P23" t="n">
-        <v>3827.687583233047</v>
+        <v>3827.687583233046</v>
       </c>
       <c r="Q23" t="n">
-        <v>4158.366385834631</v>
+        <v>4158.36638583463</v>
       </c>
       <c r="R23" t="n">
-        <v>4265.310520371073</v>
+        <v>4265.310520371072</v>
       </c>
       <c r="S23" t="n">
-        <v>4203.511192082241</v>
+        <v>4203.51119208224</v>
       </c>
       <c r="T23" t="n">
-        <v>4031.693264651595</v>
+        <v>4031.693264651594</v>
       </c>
       <c r="U23" t="n">
-        <v>3808.977159593699</v>
+        <v>3808.977159593698</v>
       </c>
       <c r="V23" t="n">
-        <v>3508.666366808135</v>
+        <v>3508.666366808134</v>
       </c>
       <c r="W23" t="n">
-        <v>3186.649806096028</v>
+        <v>3186.649806096027</v>
       </c>
       <c r="X23" t="n">
         <v>2843.936142392954</v>
       </c>
       <c r="Y23" t="n">
-        <v>2484.54890497515</v>
+        <v>2484.548904975149</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5582417929799</v>
+        <v>941.5582417929796</v>
       </c>
       <c r="C24" t="n">
-        <v>767.1052125118529</v>
+        <v>767.1052125118526</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1708028506016</v>
+        <v>618.1708028506014</v>
       </c>
       <c r="E24" t="n">
-        <v>458.933347845146</v>
+        <v>458.9333478451459</v>
       </c>
       <c r="F24" t="n">
-        <v>312.398789872031</v>
+        <v>312.3987898720309</v>
       </c>
       <c r="G24" t="n">
         <v>176.4522045995175</v>
       </c>
       <c r="H24" t="n">
-        <v>89.97296724835138</v>
+        <v>89.97296724835135</v>
       </c>
       <c r="I24" t="n">
-        <v>85.30621040742146</v>
+        <v>85.30621040742145</v>
       </c>
       <c r="J24" t="n">
-        <v>217.5519080475523</v>
+        <v>217.5519080475522</v>
       </c>
       <c r="K24" t="n">
-        <v>521.7356938242708</v>
+        <v>521.7356938242709</v>
       </c>
       <c r="L24" t="n">
-        <v>977.0708735669377</v>
+        <v>977.070873566938</v>
       </c>
       <c r="M24" t="n">
         <v>1527.782419725951</v>
       </c>
       <c r="N24" t="n">
-        <v>2047.392056704693</v>
+        <v>2107.478306734191</v>
       </c>
       <c r="O24" t="n">
-        <v>2555.480745334329</v>
+        <v>2107.478306734191</v>
       </c>
       <c r="P24" t="n">
-        <v>2555.480745334329</v>
+        <v>2495.931207006242</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.480745334329</v>
@@ -6105,10 +6105,10 @@
         <v>1779.622734511736</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.385377783535</v>
+        <v>1525.385377783534</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.533877578002</v>
+        <v>1317.533877578001</v>
       </c>
       <c r="Y24" t="n">
         <v>1109.773578813048</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>881.1881265567836</v>
+        <v>859.6453380283424</v>
       </c>
       <c r="C25" t="n">
-        <v>743.0040381868833</v>
+        <v>721.4612496584422</v>
       </c>
       <c r="D25" t="n">
-        <v>623.6394933325544</v>
+        <v>602.0967048041132</v>
       </c>
       <c r="E25" t="n">
-        <v>506.478494308168</v>
+        <v>484.9357057797268</v>
       </c>
       <c r="F25" t="n">
-        <v>390.3406413682643</v>
+        <v>368.7978528398231</v>
       </c>
       <c r="G25" t="n">
-        <v>253.7390913972056</v>
+        <v>232.1963028687644</v>
       </c>
       <c r="H25" t="n">
         <v>141.3786343557867</v>
       </c>
       <c r="I25" t="n">
-        <v>85.30621040742146</v>
+        <v>85.30621040742145</v>
       </c>
       <c r="J25" t="n">
-        <v>184.7655630971715</v>
+        <v>184.7655630971713</v>
       </c>
       <c r="K25" t="n">
-        <v>458.6553080799976</v>
+        <v>458.6553080799974</v>
       </c>
       <c r="L25" t="n">
-        <v>856.2374603996446</v>
+        <v>856.2374603996448</v>
       </c>
       <c r="M25" t="n">
         <v>1284.182806972547</v>
       </c>
       <c r="N25" t="n">
-        <v>1708.10385100508</v>
+        <v>1708.103851005081</v>
       </c>
       <c r="O25" t="n">
-        <v>2085.948094725356</v>
+        <v>2085.948094725357</v>
       </c>
       <c r="P25" t="n">
         <v>2390.088479219461</v>
       </c>
       <c r="Q25" t="n">
-        <v>2526.49710207661</v>
+        <v>2526.497102076611</v>
       </c>
       <c r="R25" t="n">
-        <v>2483.119685827437</v>
+        <v>2483.119685827438</v>
       </c>
       <c r="S25" t="n">
         <v>2328.271362107228</v>
       </c>
       <c r="T25" t="n">
-        <v>2138.748843827681</v>
+        <v>2138.748843827682</v>
       </c>
       <c r="U25" t="n">
-        <v>1880.417118352943</v>
+        <v>1880.417118352944</v>
       </c>
       <c r="V25" t="n">
-        <v>1656.484724705063</v>
+        <v>1656.484724705064</v>
       </c>
       <c r="W25" t="n">
-        <v>1397.819649226109</v>
+        <v>1397.81964922611</v>
       </c>
       <c r="X25" t="n">
-        <v>1222.12498141454</v>
+        <v>1200.582192886099</v>
       </c>
       <c r="Y25" t="n">
-        <v>1032.084496829017</v>
+        <v>1010.541708300575</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2128.701159469033</v>
+        <v>2128.701159469036</v>
       </c>
       <c r="C26" t="n">
-        <v>1790.490737086629</v>
+        <v>1790.49073708663</v>
       </c>
       <c r="D26" t="n">
         <v>1462.977133037886</v>
       </c>
       <c r="E26" t="n">
-        <v>1107.940974997648</v>
+        <v>1107.940974997649</v>
       </c>
       <c r="F26" t="n">
-        <v>727.7071647660471</v>
+        <v>727.7071647660476</v>
       </c>
       <c r="G26" t="n">
-        <v>344.1652730473199</v>
+        <v>344.1652730473201</v>
       </c>
       <c r="H26" t="n">
-        <v>85.30621040742142</v>
+        <v>85.30621040742147</v>
       </c>
       <c r="I26" t="n">
-        <v>85.30621040742142</v>
+        <v>85.30621040742147</v>
       </c>
       <c r="J26" t="n">
-        <v>338.9416740978176</v>
+        <v>338.9416740978177</v>
       </c>
       <c r="K26" t="n">
-        <v>769.8140042044369</v>
+        <v>769.8140042044374</v>
       </c>
       <c r="L26" t="n">
-        <v>1341.250991897309</v>
+        <v>1341.25099189731</v>
       </c>
       <c r="M26" t="n">
-        <v>2008.754182269668</v>
+        <v>2008.754182269669</v>
       </c>
       <c r="N26" t="n">
-        <v>2691.672080494185</v>
+        <v>2691.672080494187</v>
       </c>
       <c r="O26" t="n">
-        <v>3323.196825268486</v>
+        <v>3323.196825268488</v>
       </c>
       <c r="P26" t="n">
-        <v>3827.687583233046</v>
+        <v>3827.687583233047</v>
       </c>
       <c r="Q26" t="n">
-        <v>4158.366385834629</v>
+        <v>4158.366385834631</v>
       </c>
       <c r="R26" t="n">
-        <v>4265.310520371071</v>
+        <v>4265.310520371074</v>
       </c>
       <c r="S26" t="n">
-        <v>4203.511192082239</v>
+        <v>4203.511192082244</v>
       </c>
       <c r="T26" t="n">
-        <v>4031.693264651593</v>
+        <v>4031.693264651597</v>
       </c>
       <c r="U26" t="n">
-        <v>3808.977159593698</v>
+        <v>3808.977159593702</v>
       </c>
       <c r="V26" t="n">
-        <v>3508.666366808134</v>
+        <v>3508.666366808138</v>
       </c>
       <c r="W26" t="n">
-        <v>3186.649806096026</v>
+        <v>3186.64980609603</v>
       </c>
       <c r="X26" t="n">
-        <v>2843.936142392953</v>
+        <v>2843.936142392957</v>
       </c>
       <c r="Y26" t="n">
-        <v>2484.548904975149</v>
+        <v>2484.548904975151</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6279,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5582417929796</v>
+        <v>941.5582417929799</v>
       </c>
       <c r="C27" t="n">
-        <v>767.1052125118526</v>
+        <v>767.1052125118529</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1708028506014</v>
+        <v>618.1708028506016</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9333478451459</v>
+        <v>458.933347845146</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3987898720309</v>
+        <v>312.398789872031</v>
       </c>
       <c r="G27" t="n">
         <v>176.4522045995175</v>
       </c>
       <c r="H27" t="n">
-        <v>89.97296724835134</v>
+        <v>89.97296724835138</v>
       </c>
       <c r="I27" t="n">
-        <v>85.30621040742142</v>
+        <v>85.30621040742147</v>
       </c>
       <c r="J27" t="n">
-        <v>85.30621040742142</v>
+        <v>157.4656580180539</v>
       </c>
       <c r="K27" t="n">
-        <v>389.48999618414</v>
+        <v>461.6494437947726</v>
       </c>
       <c r="L27" t="n">
-        <v>528.5317232653891</v>
+        <v>916.9846235374397</v>
       </c>
       <c r="M27" t="n">
-        <v>1079.243269424402</v>
+        <v>1467.696169696453</v>
       </c>
       <c r="N27" t="n">
-        <v>1658.939156432642</v>
+        <v>2047.392056704693</v>
       </c>
       <c r="O27" t="n">
-        <v>2167.027845062278</v>
+        <v>2555.480745334329</v>
       </c>
       <c r="P27" t="n">
         <v>2555.480745334329</v>
@@ -6342,10 +6342,10 @@
         <v>1779.622734511736</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.385377783534</v>
+        <v>1525.385377783535</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.533877578001</v>
+        <v>1317.533877578002</v>
       </c>
       <c r="Y27" t="n">
         <v>1109.773578813048</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>859.6453380283416</v>
+        <v>881.1881265567849</v>
       </c>
       <c r="C28" t="n">
-        <v>721.4612496584414</v>
+        <v>743.0040381868845</v>
       </c>
       <c r="D28" t="n">
-        <v>602.0967048041124</v>
+        <v>623.6394933325553</v>
       </c>
       <c r="E28" t="n">
-        <v>506.478494308168</v>
+        <v>506.4784943081686</v>
       </c>
       <c r="F28" t="n">
-        <v>390.3406413682644</v>
+        <v>390.3406413682648</v>
       </c>
       <c r="G28" t="n">
-        <v>253.7390913972056</v>
+        <v>253.7390913972059</v>
       </c>
       <c r="H28" t="n">
         <v>141.3786343557867</v>
       </c>
       <c r="I28" t="n">
-        <v>85.30621040742142</v>
+        <v>85.30621040742147</v>
       </c>
       <c r="J28" t="n">
-        <v>184.7655630971717</v>
+        <v>184.7655630971713</v>
       </c>
       <c r="K28" t="n">
-        <v>458.6553080799979</v>
+        <v>458.6553080799973</v>
       </c>
       <c r="L28" t="n">
-        <v>856.2374603996451</v>
+        <v>856.2374603996443</v>
       </c>
       <c r="M28" t="n">
         <v>1284.182806972547</v>
       </c>
       <c r="N28" t="n">
-        <v>1708.103851005081</v>
+        <v>1708.10385100508</v>
       </c>
       <c r="O28" t="n">
-        <v>2085.948094725357</v>
+        <v>2085.948094725356</v>
       </c>
       <c r="P28" t="n">
-        <v>2390.088479219461</v>
+        <v>2390.08847921946</v>
       </c>
       <c r="Q28" t="n">
-        <v>2526.497102076611</v>
+        <v>2526.49710207661</v>
       </c>
       <c r="R28" t="n">
-        <v>2483.119685827438</v>
+        <v>2504.662474355882</v>
       </c>
       <c r="S28" t="n">
-        <v>2328.271362107228</v>
+        <v>2349.814150635671</v>
       </c>
       <c r="T28" t="n">
-        <v>2138.748843827682</v>
+        <v>2160.291632356125</v>
       </c>
       <c r="U28" t="n">
-        <v>1880.417118352944</v>
+        <v>1901.959906881387</v>
       </c>
       <c r="V28" t="n">
-        <v>1656.484724705063</v>
+        <v>1678.027513233507</v>
       </c>
       <c r="W28" t="n">
-        <v>1397.81964922611</v>
+        <v>1419.362437754553</v>
       </c>
       <c r="X28" t="n">
-        <v>1200.582192886098</v>
+        <v>1222.124981414542</v>
       </c>
       <c r="Y28" t="n">
-        <v>1010.541708300575</v>
+        <v>1032.084496829018</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2128.701159469035</v>
+        <v>2128.701159469036</v>
       </c>
       <c r="C29" t="n">
-        <v>1790.490737086629</v>
+        <v>1790.49073708663</v>
       </c>
       <c r="D29" t="n">
         <v>1462.977133037886</v>
@@ -6449,64 +6449,64 @@
         <v>1107.940974997648</v>
       </c>
       <c r="F29" t="n">
-        <v>727.7071647660478</v>
+        <v>727.7071647660475</v>
       </c>
       <c r="G29" t="n">
-        <v>344.1652730473199</v>
+        <v>344.1652730473201</v>
       </c>
       <c r="H29" t="n">
-        <v>85.30621040742146</v>
+        <v>85.30621040742147</v>
       </c>
       <c r="I29" t="n">
-        <v>85.30621040742146</v>
+        <v>85.30621040742147</v>
       </c>
       <c r="J29" t="n">
-        <v>338.9416740978186</v>
+        <v>338.9416740978177</v>
       </c>
       <c r="K29" t="n">
-        <v>769.8140042044383</v>
+        <v>769.814004204437</v>
       </c>
       <c r="L29" t="n">
-        <v>1341.250991897311</v>
+        <v>1341.250991897309</v>
       </c>
       <c r="M29" t="n">
-        <v>2008.75418226967</v>
+        <v>2008.754182269668</v>
       </c>
       <c r="N29" t="n">
-        <v>2691.672080494187</v>
+        <v>2691.672080494186</v>
       </c>
       <c r="O29" t="n">
-        <v>3323.196825268488</v>
+        <v>3323.196825268487</v>
       </c>
       <c r="P29" t="n">
         <v>3827.687583233047</v>
       </c>
       <c r="Q29" t="n">
-        <v>4158.366385834631</v>
+        <v>4158.366385834632</v>
       </c>
       <c r="R29" t="n">
-        <v>4265.310520371073</v>
+        <v>4265.310520371074</v>
       </c>
       <c r="S29" t="n">
-        <v>4203.511192082241</v>
+        <v>4203.511192082242</v>
       </c>
       <c r="T29" t="n">
-        <v>4031.693264651595</v>
+        <v>4031.693264651597</v>
       </c>
       <c r="U29" t="n">
-        <v>3808.977159593699</v>
+        <v>3808.977159593702</v>
       </c>
       <c r="V29" t="n">
-        <v>3508.666366808135</v>
+        <v>3508.666366808138</v>
       </c>
       <c r="W29" t="n">
-        <v>3186.649806096028</v>
+        <v>3186.64980609603</v>
       </c>
       <c r="X29" t="n">
-        <v>2843.936142392955</v>
+        <v>2843.936142392957</v>
       </c>
       <c r="Y29" t="n">
-        <v>2484.54890497515</v>
+        <v>2484.548904975151</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>89.97296724835138</v>
       </c>
       <c r="I30" t="n">
-        <v>85.30621040742146</v>
+        <v>85.30621040742147</v>
       </c>
       <c r="J30" t="n">
-        <v>217.5519080475523</v>
+        <v>85.30621040742147</v>
       </c>
       <c r="K30" t="n">
-        <v>521.7356938242708</v>
+        <v>389.4899961841401</v>
       </c>
       <c r="L30" t="n">
-        <v>977.0708735669377</v>
+        <v>844.8251759268072</v>
       </c>
       <c r="M30" t="n">
-        <v>1527.782419725951</v>
+        <v>1395.53672208582</v>
       </c>
       <c r="N30" t="n">
-        <v>2107.478306734191</v>
+        <v>1975.232609094061</v>
       </c>
       <c r="O30" t="n">
-        <v>2167.027845062278</v>
+        <v>2483.321297723696</v>
       </c>
       <c r="P30" t="n">
         <v>2555.480745334329</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>881.1881265567836</v>
+        <v>859.6453380283399</v>
       </c>
       <c r="C31" t="n">
-        <v>743.0040381868833</v>
+        <v>721.4612496584394</v>
       </c>
       <c r="D31" t="n">
-        <v>623.6394933325544</v>
+        <v>602.0967048041102</v>
       </c>
       <c r="E31" t="n">
-        <v>506.478494308168</v>
+        <v>484.9357057797236</v>
       </c>
       <c r="F31" t="n">
-        <v>390.3406413682643</v>
+        <v>390.3406413682649</v>
       </c>
       <c r="G31" t="n">
-        <v>253.7390913972055</v>
+        <v>253.739091397206</v>
       </c>
       <c r="H31" t="n">
-        <v>141.3786343557866</v>
+        <v>141.3786343557869</v>
       </c>
       <c r="I31" t="n">
-        <v>85.30621040742146</v>
+        <v>85.30621040742147</v>
       </c>
       <c r="J31" t="n">
-        <v>184.7655630971717</v>
+        <v>184.7655630971713</v>
       </c>
       <c r="K31" t="n">
-        <v>458.6553080799981</v>
+        <v>458.6553080799975</v>
       </c>
       <c r="L31" t="n">
-        <v>856.2374603996454</v>
+        <v>856.2374603996445</v>
       </c>
       <c r="M31" t="n">
-        <v>1284.182806972548</v>
+        <v>1284.182806972547</v>
       </c>
       <c r="N31" t="n">
-        <v>1708.103851005081</v>
+        <v>1708.10385100508</v>
       </c>
       <c r="O31" t="n">
-        <v>2085.948094725357</v>
+        <v>2085.948094725356</v>
       </c>
       <c r="P31" t="n">
-        <v>2390.088479219461</v>
+        <v>2390.08847921946</v>
       </c>
       <c r="Q31" t="n">
-        <v>2526.497102076611</v>
+        <v>2526.49710207661</v>
       </c>
       <c r="R31" t="n">
-        <v>2504.662474355879</v>
+        <v>2483.119685827437</v>
       </c>
       <c r="S31" t="n">
-        <v>2349.814150635669</v>
+        <v>2328.271362107227</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.291632356123</v>
+        <v>2138.748843827681</v>
       </c>
       <c r="U31" t="n">
-        <v>1901.959906881385</v>
+        <v>1880.417118352942</v>
       </c>
       <c r="V31" t="n">
-        <v>1678.027513233505</v>
+        <v>1656.484724705062</v>
       </c>
       <c r="W31" t="n">
-        <v>1419.362437754551</v>
+        <v>1397.819649226107</v>
       </c>
       <c r="X31" t="n">
-        <v>1222.12498141454</v>
+        <v>1200.582192886097</v>
       </c>
       <c r="Y31" t="n">
-        <v>1032.084496829017</v>
+        <v>1010.541708300573</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2128.701159469034</v>
+        <v>2128.701159469035</v>
       </c>
       <c r="C32" t="n">
         <v>1790.490737086629</v>
       </c>
       <c r="D32" t="n">
-        <v>1462.977133037885</v>
+        <v>1462.977133037886</v>
       </c>
       <c r="E32" t="n">
         <v>1107.940974997648</v>
       </c>
       <c r="F32" t="n">
-        <v>727.7071647660468</v>
+        <v>727.7071647660478</v>
       </c>
       <c r="G32" t="n">
-        <v>344.1652730473198</v>
+        <v>344.1652730473199</v>
       </c>
       <c r="H32" t="n">
-        <v>85.30621040742142</v>
+        <v>85.30621040742146</v>
       </c>
       <c r="I32" t="n">
-        <v>85.30621040742142</v>
+        <v>85.30621040742146</v>
       </c>
       <c r="J32" t="n">
-        <v>338.9416740978176</v>
+        <v>338.9416740978186</v>
       </c>
       <c r="K32" t="n">
-        <v>769.8140042044369</v>
+        <v>769.8140042044383</v>
       </c>
       <c r="L32" t="n">
-        <v>1341.250991897309</v>
+        <v>1341.250991897311</v>
       </c>
       <c r="M32" t="n">
-        <v>2008.754182269668</v>
+        <v>2008.75418226967</v>
       </c>
       <c r="N32" t="n">
-        <v>2691.672080494185</v>
+        <v>2691.672080494187</v>
       </c>
       <c r="O32" t="n">
-        <v>3323.196825268486</v>
+        <v>3323.196825268488</v>
       </c>
       <c r="P32" t="n">
-        <v>3827.687583233046</v>
+        <v>3827.687583233047</v>
       </c>
       <c r="Q32" t="n">
-        <v>4158.366385834629</v>
+        <v>4158.366385834631</v>
       </c>
       <c r="R32" t="n">
-        <v>4265.310520371071</v>
+        <v>4265.310520371073</v>
       </c>
       <c r="S32" t="n">
-        <v>4203.51119208224</v>
+        <v>4203.511192082241</v>
       </c>
       <c r="T32" t="n">
-        <v>4031.693264651593</v>
+        <v>4031.693264651594</v>
       </c>
       <c r="U32" t="n">
-        <v>3808.977159593698</v>
+        <v>3808.977159593699</v>
       </c>
       <c r="V32" t="n">
-        <v>3508.666366808134</v>
+        <v>3508.666366808135</v>
       </c>
       <c r="W32" t="n">
-        <v>3186.649806096027</v>
+        <v>3186.649806096028</v>
       </c>
       <c r="X32" t="n">
-        <v>2843.936142392954</v>
+        <v>2843.936142392955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2484.548904975149</v>
+        <v>2484.54890497515</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5582417929796</v>
+        <v>941.5582417929799</v>
       </c>
       <c r="C33" t="n">
-        <v>767.1052125118526</v>
+        <v>767.1052125118529</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1708028506014</v>
+        <v>618.1708028506016</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9333478451459</v>
+        <v>458.933347845146</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3987898720309</v>
+        <v>312.398789872031</v>
       </c>
       <c r="G33" t="n">
         <v>176.4522045995175</v>
       </c>
       <c r="H33" t="n">
-        <v>89.97296724835134</v>
+        <v>89.97296724835138</v>
       </c>
       <c r="I33" t="n">
-        <v>85.30621040742142</v>
+        <v>85.30621040742146</v>
       </c>
       <c r="J33" t="n">
-        <v>217.5519080475522</v>
+        <v>85.30621040742146</v>
       </c>
       <c r="K33" t="n">
-        <v>217.5519080475522</v>
+        <v>85.30621040742146</v>
       </c>
       <c r="L33" t="n">
-        <v>293.576087146079</v>
+        <v>528.5317232653891</v>
       </c>
       <c r="M33" t="n">
-        <v>844.287633305092</v>
+        <v>1079.243269424402</v>
       </c>
       <c r="N33" t="n">
-        <v>1423.983520313332</v>
+        <v>1658.939156432642</v>
       </c>
       <c r="O33" t="n">
-        <v>1932.072208942968</v>
+        <v>2167.027845062278</v>
       </c>
       <c r="P33" t="n">
-        <v>2320.525109215018</v>
+        <v>2555.480745334329</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.276389384409</v>
+        <v>2555.480745334329</v>
       </c>
       <c r="R33" t="n">
         <v>2555.480745334329</v>
@@ -6816,10 +6816,10 @@
         <v>1779.622734511736</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.385377783534</v>
+        <v>1525.385377783535</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.533877578001</v>
+        <v>1317.533877578002</v>
       </c>
       <c r="Y33" t="n">
         <v>1109.773578813048</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>859.6453380283428</v>
+        <v>881.1881265567836</v>
       </c>
       <c r="C34" t="n">
-        <v>721.4612496584427</v>
+        <v>743.0040381868833</v>
       </c>
       <c r="D34" t="n">
-        <v>623.639493332554</v>
+        <v>623.6394933325544</v>
       </c>
       <c r="E34" t="n">
-        <v>506.4784943081677</v>
+        <v>506.478494308168</v>
       </c>
       <c r="F34" t="n">
-        <v>390.3406413682641</v>
+        <v>390.3406413682643</v>
       </c>
       <c r="G34" t="n">
-        <v>253.7390913972054</v>
+        <v>253.7390913972055</v>
       </c>
       <c r="H34" t="n">
-        <v>141.3786343557866</v>
+        <v>141.3786343557867</v>
       </c>
       <c r="I34" t="n">
-        <v>85.30621040742142</v>
+        <v>85.30621040742146</v>
       </c>
       <c r="J34" t="n">
-        <v>184.7655630971713</v>
+        <v>184.7655630971717</v>
       </c>
       <c r="K34" t="n">
-        <v>458.6553080799977</v>
+        <v>458.6553080799979</v>
       </c>
       <c r="L34" t="n">
-        <v>856.237460399645</v>
+        <v>856.2374603996452</v>
       </c>
       <c r="M34" t="n">
         <v>1284.182806972547</v>
@@ -6877,31 +6877,31 @@
         <v>2390.088479219461</v>
       </c>
       <c r="Q34" t="n">
-        <v>2526.497102076611</v>
+        <v>2526.49710207661</v>
       </c>
       <c r="R34" t="n">
-        <v>2483.119685827438</v>
+        <v>2483.119685827437</v>
       </c>
       <c r="S34" t="n">
-        <v>2328.271362107228</v>
+        <v>2328.271362107227</v>
       </c>
       <c r="T34" t="n">
-        <v>2138.748843827682</v>
+        <v>2160.291632356123</v>
       </c>
       <c r="U34" t="n">
-        <v>1880.417118352944</v>
+        <v>1901.959906881385</v>
       </c>
       <c r="V34" t="n">
-        <v>1656.484724705064</v>
+        <v>1678.027513233505</v>
       </c>
       <c r="W34" t="n">
-        <v>1397.81964922611</v>
+        <v>1419.362437754551</v>
       </c>
       <c r="X34" t="n">
-        <v>1200.582192886099</v>
+        <v>1222.12498141454</v>
       </c>
       <c r="Y34" t="n">
-        <v>1010.541708300576</v>
+        <v>1032.084496829017</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>85.30621040742146</v>
       </c>
       <c r="J35" t="n">
-        <v>338.9416740978177</v>
+        <v>338.9416740978186</v>
       </c>
       <c r="K35" t="n">
-        <v>769.814004204437</v>
+        <v>769.8140042044383</v>
       </c>
       <c r="L35" t="n">
-        <v>1341.250991897309</v>
+        <v>1341.250991897311</v>
       </c>
       <c r="M35" t="n">
-        <v>2008.754182269668</v>
+        <v>2008.754182269669</v>
       </c>
       <c r="N35" t="n">
-        <v>2691.672080494185</v>
+        <v>2691.672080494187</v>
       </c>
       <c r="O35" t="n">
-        <v>3323.196825268486</v>
+        <v>3323.196825268488</v>
       </c>
       <c r="P35" t="n">
         <v>3827.687583233047</v>
       </c>
       <c r="Q35" t="n">
-        <v>4158.36638583463</v>
+        <v>4158.366385834631</v>
       </c>
       <c r="R35" t="n">
         <v>4265.310520371073</v>
@@ -7026,10 +7026,10 @@
         <v>1527.782419725951</v>
       </c>
       <c r="N36" t="n">
-        <v>1658.939156432642</v>
+        <v>2107.478306734191</v>
       </c>
       <c r="O36" t="n">
-        <v>2167.027845062278</v>
+        <v>2555.480745334329</v>
       </c>
       <c r="P36" t="n">
         <v>2555.480745334329</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>859.6453380283426</v>
+        <v>859.6453380283424</v>
       </c>
       <c r="C37" t="n">
-        <v>721.4612496584424</v>
+        <v>721.4612496584422</v>
       </c>
       <c r="D37" t="n">
-        <v>602.0967048041134</v>
+        <v>602.0967048041132</v>
       </c>
       <c r="E37" t="n">
-        <v>484.935705779727</v>
+        <v>484.9357057797268</v>
       </c>
       <c r="F37" t="n">
-        <v>390.3406413682646</v>
+        <v>368.7978528398231</v>
       </c>
       <c r="G37" t="n">
         <v>253.7390913972056</v>
@@ -7099,25 +7099,25 @@
         <v>458.6553080799976</v>
       </c>
       <c r="L37" t="n">
-        <v>856.2374603996449</v>
+        <v>856.2374603996445</v>
       </c>
       <c r="M37" t="n">
         <v>1284.182806972547</v>
       </c>
       <c r="N37" t="n">
-        <v>1708.103851005081</v>
+        <v>1708.10385100508</v>
       </c>
       <c r="O37" t="n">
-        <v>2085.948094725357</v>
+        <v>2085.948094725356</v>
       </c>
       <c r="P37" t="n">
         <v>2390.088479219461</v>
       </c>
       <c r="Q37" t="n">
-        <v>2526.497102076611</v>
+        <v>2526.49710207661</v>
       </c>
       <c r="R37" t="n">
-        <v>2483.119685827438</v>
+        <v>2483.119685827437</v>
       </c>
       <c r="S37" t="n">
         <v>2328.271362107228</v>
@@ -7129,16 +7129,16 @@
         <v>1880.417118352944</v>
       </c>
       <c r="V37" t="n">
-        <v>1656.484724705064</v>
+        <v>1656.484724705063</v>
       </c>
       <c r="W37" t="n">
-        <v>1397.81964922611</v>
+        <v>1397.819649226109</v>
       </c>
       <c r="X37" t="n">
         <v>1200.582192886099</v>
       </c>
       <c r="Y37" t="n">
-        <v>1010.541708300576</v>
+        <v>1010.541708300575</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7157,10 @@
         <v>1462.977133037886</v>
       </c>
       <c r="E38" t="n">
-        <v>1107.940974997648</v>
+        <v>1107.940974997649</v>
       </c>
       <c r="F38" t="n">
-        <v>727.7071647660478</v>
+        <v>727.7071647660482</v>
       </c>
       <c r="G38" t="n">
         <v>344.1652730473199</v>
@@ -7175,19 +7175,19 @@
         <v>338.9416740978186</v>
       </c>
       <c r="K38" t="n">
-        <v>769.8140042044383</v>
+        <v>769.8140042044379</v>
       </c>
       <c r="L38" t="n">
-        <v>1341.250991897311</v>
+        <v>1341.25099189731</v>
       </c>
       <c r="M38" t="n">
         <v>2008.754182269669</v>
       </c>
       <c r="N38" t="n">
-        <v>2691.672080494187</v>
+        <v>2691.672080494186</v>
       </c>
       <c r="O38" t="n">
-        <v>3323.196825268488</v>
+        <v>3323.196825268487</v>
       </c>
       <c r="P38" t="n">
         <v>3827.687583233047</v>
@@ -7202,7 +7202,7 @@
         <v>4203.511192082241</v>
       </c>
       <c r="T38" t="n">
-        <v>4031.693264651594</v>
+        <v>4031.693264651595</v>
       </c>
       <c r="U38" t="n">
         <v>3808.9771595937</v>
@@ -7263,10 +7263,10 @@
         <v>1527.782419725951</v>
       </c>
       <c r="N39" t="n">
-        <v>1658.939156432642</v>
+        <v>2107.478306734191</v>
       </c>
       <c r="O39" t="n">
-        <v>2167.027845062278</v>
+        <v>2555.480745334329</v>
       </c>
       <c r="P39" t="n">
         <v>2555.480745334329</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>859.6453380283417</v>
+        <v>859.6453380283428</v>
       </c>
       <c r="C40" t="n">
-        <v>721.4612496584415</v>
+        <v>721.4612496584426</v>
       </c>
       <c r="D40" t="n">
-        <v>602.0967048041125</v>
+        <v>623.6394933325544</v>
       </c>
       <c r="E40" t="n">
         <v>506.4784943081679</v>
       </c>
       <c r="F40" t="n">
-        <v>390.3406413682642</v>
+        <v>390.3406413682643</v>
       </c>
       <c r="G40" t="n">
         <v>253.7390913972055</v>
@@ -7333,19 +7333,19 @@
         <v>184.7655630971715</v>
       </c>
       <c r="K40" t="n">
-        <v>458.6553080799974</v>
+        <v>458.6553080799977</v>
       </c>
       <c r="L40" t="n">
-        <v>856.2374603996446</v>
+        <v>856.2374603996449</v>
       </c>
       <c r="M40" t="n">
         <v>1284.182806972547</v>
       </c>
       <c r="N40" t="n">
-        <v>1708.10385100508</v>
+        <v>1708.103851005081</v>
       </c>
       <c r="O40" t="n">
-        <v>2085.948094725356</v>
+        <v>2085.948094725357</v>
       </c>
       <c r="P40" t="n">
         <v>2390.088479219461</v>
@@ -7366,16 +7366,16 @@
         <v>1880.417118352943</v>
       </c>
       <c r="V40" t="n">
-        <v>1656.484724705062</v>
+        <v>1656.484724705063</v>
       </c>
       <c r="W40" t="n">
         <v>1397.819649226109</v>
       </c>
       <c r="X40" t="n">
-        <v>1200.582192886098</v>
+        <v>1200.582192886099</v>
       </c>
       <c r="Y40" t="n">
-        <v>1010.541708300575</v>
+        <v>1010.541708300576</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2128.701159469033</v>
+        <v>2128.701159469035</v>
       </c>
       <c r="C41" t="n">
-        <v>1790.490737086629</v>
+        <v>1790.49073708663</v>
       </c>
       <c r="D41" t="n">
-        <v>1462.977133037885</v>
+        <v>1462.977133037886</v>
       </c>
       <c r="E41" t="n">
-        <v>1107.940974997647</v>
+        <v>1107.940974997648</v>
       </c>
       <c r="F41" t="n">
-        <v>727.7071647660464</v>
+        <v>727.7071647660478</v>
       </c>
       <c r="G41" t="n">
         <v>344.1652730473199</v>
       </c>
       <c r="H41" t="n">
-        <v>85.30621040742142</v>
+        <v>85.30621040742146</v>
       </c>
       <c r="I41" t="n">
-        <v>85.30621040742142</v>
+        <v>85.30621040742146</v>
       </c>
       <c r="J41" t="n">
-        <v>338.9416740978172</v>
+        <v>338.9416740978177</v>
       </c>
       <c r="K41" t="n">
-        <v>769.8140042044367</v>
+        <v>769.814004204437</v>
       </c>
       <c r="L41" t="n">
         <v>1341.250991897309</v>
@@ -7421,40 +7421,40 @@
         <v>2008.754182269668</v>
       </c>
       <c r="N41" t="n">
-        <v>2691.672080494184</v>
+        <v>2691.672080494185</v>
       </c>
       <c r="O41" t="n">
         <v>3323.196825268486</v>
       </c>
       <c r="P41" t="n">
-        <v>3827.687583233045</v>
+        <v>3827.687583233047</v>
       </c>
       <c r="Q41" t="n">
-        <v>4158.366385834629</v>
+        <v>4158.366385834631</v>
       </c>
       <c r="R41" t="n">
-        <v>4265.310520371071</v>
+        <v>4265.310520371073</v>
       </c>
       <c r="S41" t="n">
-        <v>4203.511192082239</v>
+        <v>4203.511192082241</v>
       </c>
       <c r="T41" t="n">
-        <v>4031.693264651593</v>
+        <v>4031.693264651595</v>
       </c>
       <c r="U41" t="n">
-        <v>3808.977159593698</v>
+        <v>3808.9771595937</v>
       </c>
       <c r="V41" t="n">
-        <v>3508.666366808134</v>
+        <v>3508.666366808136</v>
       </c>
       <c r="W41" t="n">
-        <v>3186.649806096027</v>
+        <v>3186.649806096028</v>
       </c>
       <c r="X41" t="n">
-        <v>2843.936142392954</v>
+        <v>2843.936142392955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2484.548904975149</v>
+        <v>2484.54890497515</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5582417929796</v>
+        <v>941.5582417929799</v>
       </c>
       <c r="C42" t="n">
-        <v>767.1052125118526</v>
+        <v>767.1052125118529</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1708028506014</v>
+        <v>618.1708028506016</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9333478451459</v>
+        <v>458.933347845146</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3987898720309</v>
+        <v>312.398789872031</v>
       </c>
       <c r="G42" t="n">
         <v>176.4522045995175</v>
       </c>
       <c r="H42" t="n">
-        <v>89.97296724835134</v>
+        <v>89.97296724835138</v>
       </c>
       <c r="I42" t="n">
-        <v>85.30621040742142</v>
+        <v>85.30621040742146</v>
       </c>
       <c r="J42" t="n">
-        <v>217.5519080475522</v>
+        <v>217.5519080475523</v>
       </c>
       <c r="K42" t="n">
         <v>521.7356938242708</v>
@@ -7503,7 +7503,7 @@
         <v>2107.478306734191</v>
       </c>
       <c r="O42" t="n">
-        <v>2167.027845062278</v>
+        <v>2555.480745334329</v>
       </c>
       <c r="P42" t="n">
         <v>2555.480745334329</v>
@@ -7527,10 +7527,10 @@
         <v>1779.622734511736</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.385377783534</v>
+        <v>1525.385377783535</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.533877578001</v>
+        <v>1317.533877578002</v>
       </c>
       <c r="Y42" t="n">
         <v>1109.773578813048</v>
@@ -7543,70 +7543,70 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>859.6453380283419</v>
+        <v>859.6453380283422</v>
       </c>
       <c r="C43" t="n">
-        <v>721.4612496584417</v>
+        <v>721.4612496584419</v>
       </c>
       <c r="D43" t="n">
-        <v>623.6394933325539</v>
+        <v>602.096704804113</v>
       </c>
       <c r="E43" t="n">
-        <v>506.4784943081675</v>
+        <v>484.9357057797265</v>
       </c>
       <c r="F43" t="n">
-        <v>390.3406413682638</v>
+        <v>390.3406413682643</v>
       </c>
       <c r="G43" t="n">
-        <v>253.7390913972051</v>
+        <v>253.7390913972056</v>
       </c>
       <c r="H43" t="n">
         <v>141.3786343557867</v>
       </c>
       <c r="I43" t="n">
-        <v>85.30621040742142</v>
+        <v>85.30621040742146</v>
       </c>
       <c r="J43" t="n">
-        <v>184.7655630971714</v>
+        <v>184.7655630971715</v>
       </c>
       <c r="K43" t="n">
-        <v>458.6553080799976</v>
+        <v>458.6553080799974</v>
       </c>
       <c r="L43" t="n">
-        <v>856.2374603996448</v>
+        <v>856.2374603996446</v>
       </c>
       <c r="M43" t="n">
         <v>1284.182806972547</v>
       </c>
       <c r="N43" t="n">
-        <v>1708.10385100508</v>
+        <v>1708.103851005081</v>
       </c>
       <c r="O43" t="n">
-        <v>2085.948094725356</v>
+        <v>2085.948094725357</v>
       </c>
       <c r="P43" t="n">
         <v>2390.088479219461</v>
       </c>
       <c r="Q43" t="n">
-        <v>2526.49710207661</v>
+        <v>2526.497102076611</v>
       </c>
       <c r="R43" t="n">
-        <v>2483.119685827437</v>
+        <v>2483.119685827438</v>
       </c>
       <c r="S43" t="n">
-        <v>2328.271362107227</v>
+        <v>2328.271362107228</v>
       </c>
       <c r="T43" t="n">
-        <v>2138.748843827681</v>
+        <v>2138.748843827682</v>
       </c>
       <c r="U43" t="n">
-        <v>1880.417118352943</v>
+        <v>1880.417118352944</v>
       </c>
       <c r="V43" t="n">
-        <v>1656.484724705063</v>
+        <v>1656.484724705064</v>
       </c>
       <c r="W43" t="n">
-        <v>1397.819649226109</v>
+        <v>1397.81964922611</v>
       </c>
       <c r="X43" t="n">
         <v>1200.582192886098</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2128.701159469034</v>
+        <v>2128.701159469035</v>
       </c>
       <c r="C44" t="n">
-        <v>1790.490737086629</v>
+        <v>1790.49073708663</v>
       </c>
       <c r="D44" t="n">
-        <v>1462.977133037885</v>
+        <v>1462.977133037886</v>
       </c>
       <c r="E44" t="n">
         <v>1107.940974997648</v>
       </c>
       <c r="F44" t="n">
-        <v>727.7071647660468</v>
+        <v>727.7071647660478</v>
       </c>
       <c r="G44" t="n">
         <v>344.1652730473199</v>
       </c>
       <c r="H44" t="n">
-        <v>85.30621040742145</v>
+        <v>85.30621040742146</v>
       </c>
       <c r="I44" t="n">
-        <v>85.30621040742145</v>
+        <v>85.30621040742146</v>
       </c>
       <c r="J44" t="n">
-        <v>338.9416740978175</v>
+        <v>338.9416740978186</v>
       </c>
       <c r="K44" t="n">
-        <v>769.814004204437</v>
+        <v>769.8140042044383</v>
       </c>
       <c r="L44" t="n">
-        <v>1341.250991897309</v>
+        <v>1341.250991897311</v>
       </c>
       <c r="M44" t="n">
-        <v>2008.754182269668</v>
+        <v>2008.75418226967</v>
       </c>
       <c r="N44" t="n">
-        <v>2691.672080494185</v>
+        <v>2691.672080494187</v>
       </c>
       <c r="O44" t="n">
-        <v>3323.196825268486</v>
+        <v>3323.196825268488</v>
       </c>
       <c r="P44" t="n">
-        <v>3827.687583233046</v>
+        <v>3827.687583233047</v>
       </c>
       <c r="Q44" t="n">
-        <v>4158.36638583463</v>
+        <v>4158.366385834631</v>
       </c>
       <c r="R44" t="n">
-        <v>4265.310520371072</v>
+        <v>4265.310520371073</v>
       </c>
       <c r="S44" t="n">
-        <v>4203.51119208224</v>
+        <v>4203.511192082241</v>
       </c>
       <c r="T44" t="n">
-        <v>4031.693264651594</v>
+        <v>4031.693264651595</v>
       </c>
       <c r="U44" t="n">
-        <v>3808.977159593699</v>
+        <v>3808.9771595937</v>
       </c>
       <c r="V44" t="n">
         <v>3508.666366808135</v>
       </c>
       <c r="W44" t="n">
-        <v>3186.649806096027</v>
+        <v>3186.649806096028</v>
       </c>
       <c r="X44" t="n">
         <v>2843.936142392954</v>
       </c>
       <c r="Y44" t="n">
-        <v>2484.548904975149</v>
+        <v>2484.54890497515</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>176.4522045995175</v>
       </c>
       <c r="H45" t="n">
-        <v>89.97296724835137</v>
+        <v>89.97296724835138</v>
       </c>
       <c r="I45" t="n">
-        <v>85.30621040742145</v>
+        <v>85.30621040742146</v>
       </c>
       <c r="J45" t="n">
-        <v>85.30621040742145</v>
+        <v>217.5519080475523</v>
       </c>
       <c r="K45" t="n">
-        <v>85.30621040742145</v>
+        <v>521.7356938242708</v>
       </c>
       <c r="L45" t="n">
-        <v>540.6413901500885</v>
+        <v>977.0708735669377</v>
       </c>
       <c r="M45" t="n">
-        <v>1091.352936309102</v>
+        <v>1527.782419725951</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.048823317342</v>
+        <v>2107.478306734191</v>
       </c>
       <c r="O45" t="n">
-        <v>2179.137511946977</v>
+        <v>2555.480745334329</v>
       </c>
       <c r="P45" t="n">
-        <v>2320.525109215018</v>
+        <v>2555.480745334329</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.276389384409</v>
+        <v>2555.480745334329</v>
       </c>
       <c r="R45" t="n">
         <v>2555.480745334329</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>859.6453380283418</v>
+        <v>859.6453380283425</v>
       </c>
       <c r="C46" t="n">
-        <v>721.4612496584416</v>
+        <v>721.4612496584423</v>
       </c>
       <c r="D46" t="n">
-        <v>602.0967048041126</v>
+        <v>602.0967048041133</v>
       </c>
       <c r="E46" t="n">
-        <v>484.9357057797262</v>
+        <v>484.9357057797269</v>
       </c>
       <c r="F46" t="n">
-        <v>390.3406413682643</v>
+        <v>368.7978528398232</v>
       </c>
       <c r="G46" t="n">
         <v>253.7390913972056</v>
@@ -7801,31 +7801,31 @@
         <v>141.3786343557867</v>
       </c>
       <c r="I46" t="n">
-        <v>85.30621040742145</v>
+        <v>85.30621040742146</v>
       </c>
       <c r="J46" t="n">
-        <v>184.7655630971714</v>
+        <v>184.7655630971715</v>
       </c>
       <c r="K46" t="n">
-        <v>458.6553080799978</v>
+        <v>458.6553080799974</v>
       </c>
       <c r="L46" t="n">
-        <v>856.237460399645</v>
+        <v>856.2374603996446</v>
       </c>
       <c r="M46" t="n">
         <v>1284.182806972547</v>
       </c>
       <c r="N46" t="n">
-        <v>1708.103851005081</v>
+        <v>1708.10385100508</v>
       </c>
       <c r="O46" t="n">
-        <v>2085.948094725357</v>
+        <v>2085.948094725356</v>
       </c>
       <c r="P46" t="n">
         <v>2390.088479219461</v>
       </c>
       <c r="Q46" t="n">
-        <v>2526.497102076611</v>
+        <v>2526.49710207661</v>
       </c>
       <c r="R46" t="n">
         <v>2483.119685827438</v>
@@ -7837,13 +7837,13 @@
         <v>2138.748843827681</v>
       </c>
       <c r="U46" t="n">
-        <v>1880.417118352944</v>
+        <v>1880.417118352943</v>
       </c>
       <c r="V46" t="n">
-        <v>1656.484724705064</v>
+        <v>1656.484724705063</v>
       </c>
       <c r="W46" t="n">
-        <v>1397.81964922611</v>
+        <v>1397.819649226109</v>
       </c>
       <c r="X46" t="n">
         <v>1200.582192886099</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.23126628370572</v>
+        <v>65.29236085646849</v>
       </c>
       <c r="K2" t="n">
-        <v>46.60529509404796</v>
+        <v>60.54420052128519</v>
       </c>
       <c r="L2" t="n">
-        <v>24.78845221140297</v>
+        <v>20.54348275905164</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0.307847721892557</v>
       </c>
       <c r="P2" t="n">
-        <v>49.05114215269006</v>
+        <v>39.35720617780417</v>
       </c>
       <c r="Q2" t="n">
-        <v>75.02716749247355</v>
+        <v>88.96607291971077</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>71.87583075794683</v>
+        <v>57.9369253307096</v>
       </c>
       <c r="L4" t="n">
         <v>43.93144097118262</v>
       </c>
       <c r="M4" t="n">
-        <v>56.40406722691951</v>
+        <v>56.96725532498969</v>
       </c>
       <c r="N4" t="n">
-        <v>48.00724248301904</v>
+        <v>48.00724248301906</v>
       </c>
       <c r="O4" t="n">
-        <v>51.9858950251126</v>
+        <v>65.92480045234983</v>
       </c>
       <c r="P4" t="n">
-        <v>77.67633575955838</v>
+        <v>77.1131476614882</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8228,10 +8228,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>16.54957420044005</v>
       </c>
       <c r="P5" t="n">
-        <v>55.3856817216131</v>
+        <v>38.83610752117304</v>
       </c>
       <c r="Q5" t="n">
         <v>50.01861771953256</v>
@@ -8377,19 +8377,19 @@
         <v>45.86784710562524</v>
       </c>
       <c r="L7" t="n">
-        <v>81.51555695358093</v>
+        <v>83.74833088504644</v>
       </c>
       <c r="M7" t="n">
-        <v>82.00569282084165</v>
+        <v>79.77291888937611</v>
       </c>
       <c r="N7" t="n">
-        <v>18.17171782551226</v>
+        <v>73.43287262928449</v>
       </c>
       <c r="O7" t="n">
         <v>92.56394902735028</v>
       </c>
       <c r="P7" t="n">
-        <v>106.4346558163342</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8614,7 +8614,7 @@
         <v>29.26310570632464</v>
       </c>
       <c r="L10" t="n">
-        <v>13.70305549431463</v>
+        <v>114.8216795779765</v>
       </c>
       <c r="M10" t="n">
         <v>116.4537900083357</v>
@@ -8626,7 +8626,7 @@
         <v>129.2143182548924</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>33.88793923037926</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>245.2047924200319</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534533</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873203</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.91797013962</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>150.474584068587</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>29.99323940113277</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465564</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983792</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>178.8958273833775</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>235.8323047972955</v>
+        <v>244.8801755921399</v>
       </c>
       <c r="I14" t="n">
-        <v>17.05074063895495</v>
+        <v>17.05074063895484</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>94.69089297576758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9442778500705</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77066203618097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>76.10102300979722</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.7958600344948</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>22.68685092535854</v>
+        <v>286.1962727430245</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>104.8305915668395</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>164.2913158440035</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>164.2913158440076</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>86.38586881961355</v>
+        <v>86.38586881961533</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>164.2913158440041</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>164.2913158440078</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>86.38586881961344</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>40.7294194222445</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>45.65644939737061</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>21.32736064315675</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>21.32736064315752</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.762145984685048e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>21.32736064315766</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.3273606431605</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>21.32736064316071</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.32736064315637</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>21.32736064315583</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>21.32736064315733</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25321,10 +25321,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>21.32736064315688</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>21.32736064315681</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>21.32736064315631</v>
       </c>
       <c r="E40" t="n">
-        <v>21.32736064315733</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>21.32736064315677</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>21.32736064315704</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26032,10 +26032,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>21.32736064315739</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>21.32736064315669</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>813542.0618819101</v>
+        <v>813542.0618819105</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897193.0129332996</v>
+        <v>897193.0129332998</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959120.7106191769</v>
+        <v>959120.7106191763</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>959120.7106191767</v>
+        <v>959120.7106191764</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>976321.5273206424</v>
+        <v>976321.5273206425</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>976321.5273206425</v>
+        <v>976321.5273206424</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>976321.5273206424</v>
+        <v>976321.5273206425</v>
       </c>
     </row>
   </sheetData>
@@ -26317,31 +26317,31 @@
         <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165587</v>
+        <v>392146.6638165591</v>
       </c>
       <c r="F2" t="n">
-        <v>433082.2356076642</v>
+        <v>433082.2356076644</v>
       </c>
       <c r="G2" t="n">
-        <v>463387.2791560721</v>
+        <v>463387.2791560718</v>
       </c>
       <c r="H2" t="n">
-        <v>463387.2791560721</v>
+        <v>463387.2791560718</v>
       </c>
       <c r="I2" t="n">
-        <v>471804.7000950869</v>
+        <v>471804.7000950871</v>
       </c>
       <c r="J2" t="n">
         <v>471804.7000950869</v>
       </c>
       <c r="K2" t="n">
+        <v>471804.7000950869</v>
+      </c>
+      <c r="L2" t="n">
         <v>471804.7000950871</v>
-      </c>
-      <c r="L2" t="n">
-        <v>471804.7000950872</v>
       </c>
       <c r="M2" t="n">
         <v>471804.700095087</v>
@@ -26350,10 +26350,10 @@
         <v>471804.7000950871</v>
       </c>
       <c r="O2" t="n">
-        <v>471804.7000950871</v>
+        <v>471804.700095087</v>
       </c>
       <c r="P2" t="n">
-        <v>471804.7000950871</v>
+        <v>471804.700095087</v>
       </c>
     </row>
     <row r="3">
@@ -26372,34 +26372,34 @@
         <v>85535.56659127225</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429537</v>
+        <v>707780.8576429539</v>
       </c>
       <c r="F3" t="n">
-        <v>180651.7709084598</v>
+        <v>180651.7709084594</v>
       </c>
       <c r="G3" t="n">
-        <v>24355.65888994195</v>
+        <v>24355.65888994117</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>36088.06664630827</v>
+        <v>36088.06664630948</v>
       </c>
       <c r="J3" t="n">
-        <v>3647.030971603939</v>
+        <v>3647.030971604177</v>
       </c>
       <c r="K3" t="n">
-        <v>10635.02467754018</v>
+        <v>10635.02467754006</v>
       </c>
       <c r="L3" t="n">
-        <v>38744.26322317676</v>
+        <v>38744.26322317679</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383016</v>
+        <v>179249.6449383015</v>
       </c>
       <c r="N3" t="n">
-        <v>47497.62968486807</v>
+        <v>47497.62968486801</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>303495.7073635384</v>
       </c>
       <c r="E4" t="n">
-        <v>12820.12292715301</v>
+        <v>12820.12292715329</v>
       </c>
       <c r="F4" t="n">
-        <v>12920.48483016136</v>
+        <v>12920.48483016153</v>
       </c>
       <c r="G4" t="n">
-        <v>43077.59569916156</v>
+        <v>43077.59569916157</v>
       </c>
       <c r="H4" t="n">
-        <v>43077.59569916155</v>
+        <v>43077.59569916157</v>
       </c>
       <c r="I4" t="n">
         <v>42863.2269675174</v>
       </c>
       <c r="J4" t="n">
-        <v>42863.2269675174</v>
+        <v>42863.22696751721</v>
       </c>
       <c r="K4" t="n">
-        <v>42863.22696751742</v>
+        <v>42863.22696751723</v>
       </c>
       <c r="L4" t="n">
-        <v>42863.22696751748</v>
+        <v>42863.22696751741</v>
       </c>
       <c r="M4" t="n">
-        <v>42863.22696751742</v>
+        <v>42863.22696751741</v>
       </c>
       <c r="N4" t="n">
         <v>42863.22696751742</v>
       </c>
       <c r="O4" t="n">
+        <v>42863.22696751741</v>
+      </c>
+      <c r="P4" t="n">
         <v>42863.22696751742</v>
-      </c>
-      <c r="P4" t="n">
-        <v>42863.22696751739</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>89546.84593799425</v>
+        <v>89546.84593799422</v>
       </c>
       <c r="G5" t="n">
-        <v>92106.2907970174</v>
+        <v>92106.29079701731</v>
       </c>
       <c r="H5" t="n">
-        <v>92106.2907970174</v>
+        <v>92106.29079701731</v>
       </c>
       <c r="I5" t="n">
+        <v>95328.49768752445</v>
+      </c>
+      <c r="J5" t="n">
         <v>95328.49768752446</v>
-      </c>
-      <c r="J5" t="n">
-        <v>95328.49768752443</v>
       </c>
       <c r="K5" t="n">
         <v>95328.49768752446</v>
       </c>
       <c r="L5" t="n">
-        <v>95328.49768752443</v>
+        <v>95328.49768752446</v>
       </c>
       <c r="M5" t="n">
         <v>95328.49768752446</v>
@@ -26506,10 +26506,10 @@
         <v>95328.49768752446</v>
       </c>
       <c r="O5" t="n">
-        <v>95328.49768752443</v>
+        <v>95328.49768752446</v>
       </c>
       <c r="P5" t="n">
-        <v>95328.49768752445</v>
+        <v>95328.49768752446</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>30663.03999964085</v>
       </c>
       <c r="D6" t="n">
-        <v>32244.37060542951</v>
+        <v>32244.37060542934</v>
       </c>
       <c r="E6" t="n">
-        <v>-402760.6573149413</v>
+        <v>-403108.2762447475</v>
       </c>
       <c r="F6" t="n">
-        <v>149963.1339310488</v>
+        <v>149793.495748161</v>
       </c>
       <c r="G6" t="n">
-        <v>303847.7337699512</v>
+        <v>303809.8566459696</v>
       </c>
       <c r="H6" t="n">
-        <v>328203.3926598931</v>
+        <v>328165.5155359108</v>
       </c>
       <c r="I6" t="n">
-        <v>297524.9087937368</v>
+        <v>297523.6291520972</v>
       </c>
       <c r="J6" t="n">
-        <v>329965.9444684412</v>
+        <v>329964.6648268024</v>
       </c>
       <c r="K6" t="n">
-        <v>322977.950762505</v>
+        <v>322976.6711208666</v>
       </c>
       <c r="L6" t="n">
-        <v>294868.7122168685</v>
+        <v>294867.4325752298</v>
       </c>
       <c r="M6" t="n">
-        <v>154363.3305017435</v>
+        <v>154362.0508601051</v>
       </c>
       <c r="N6" t="n">
-        <v>286115.3457551771</v>
+        <v>286114.0661135386</v>
       </c>
       <c r="O6" t="n">
-        <v>333612.9754400453</v>
+        <v>333611.6957984066</v>
       </c>
       <c r="P6" t="n">
-        <v>333612.9754400452</v>
+        <v>333611.6957984066</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="G2" t="n">
         <v>30.44457361242663</v>
@@ -26707,13 +26707,13 @@
         <v>30.44457361242663</v>
       </c>
       <c r="J2" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="K2" t="n">
+        <v>30.44457361242645</v>
+      </c>
+      <c r="L2" t="n">
         <v>30.44457361242664</v>
-      </c>
-      <c r="L2" t="n">
-        <v>30.4445736124267</v>
       </c>
       <c r="M2" t="n">
         <v>30.44457361242664</v>
@@ -26725,7 +26725,7 @@
         <v>30.44457361242664</v>
       </c>
       <c r="P2" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
     </row>
     <row r="3">
@@ -26750,10 +26750,10 @@
         <v>1248.02557024054</v>
       </c>
       <c r="G3" t="n">
-        <v>1248.025570240541</v>
+        <v>1248.02557024054</v>
       </c>
       <c r="H3" t="n">
-        <v>1248.025570240541</v>
+        <v>1248.02557024054</v>
       </c>
       <c r="I3" t="n">
         <v>1281.483161415645</v>
@@ -26796,16 +26796,16 @@
         <v>112.1126601249236</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>1025.32711359787</v>
+        <v>1025.327113597869</v>
       </c>
       <c r="G4" t="n">
-        <v>1025.32711359787</v>
+        <v>1025.327113597869</v>
       </c>
       <c r="H4" t="n">
-        <v>1025.32711359787</v>
+        <v>1025.327113597869</v>
       </c>
       <c r="I4" t="n">
         <v>1066.327630092768</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242646</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>30.44457361242669</v>
+        <v>30.44457361242665</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26969,16 +26969,16 @@
         <v>613.6609493947961</v>
       </c>
       <c r="F3" t="n">
-        <v>158.2488696472417</v>
+        <v>158.2488696472412</v>
       </c>
       <c r="G3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>33.4575911751042</v>
+        <v>33.45759117510556</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,34 +27018,34 @@
         <v>56.85150532115136</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.288795277369</v>
       </c>
       <c r="F4" t="n">
-        <v>193.9256581955769</v>
+        <v>193.9256581955767</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>41.00051649489797</v>
+        <v>41.00051649489865</v>
       </c>
       <c r="J4" t="n">
-        <v>13.93890542723677</v>
+        <v>13.93890542723768</v>
       </c>
       <c r="K4" t="n">
-        <v>41.32224937653545</v>
+        <v>41.322249376535</v>
       </c>
       <c r="L4" t="n">
-        <v>56.85150532115091</v>
+        <v>56.85150532115114</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773697</v>
+        <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
-        <v>193.9256581955769</v>
+        <v>193.9256581955767</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242646</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>56.85150532115136</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
-        <v>193.9256581955769</v>
+        <v>193.9256581955767</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>394.5986578414009</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>325.5074567455836</v>
       </c>
       <c r="I2" t="n">
-        <v>143.9578475744879</v>
+        <v>152.495410843126</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>251.2365463408047</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>313.8133530428977</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>154.2557957495568</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,16 +27464,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>143.7061750281637</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>131.1303069661467</v>
       </c>
       <c r="G3" t="n">
-        <v>136.613802664483</v>
+        <v>122.6748972372458</v>
       </c>
       <c r="H3" t="n">
-        <v>92.91055051952731</v>
+        <v>105.1879384198378</v>
       </c>
       <c r="I3" t="n">
         <v>50.33378525307427</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91261976054701</v>
+        <v>54.85152518778424</v>
       </c>
       <c r="S3" t="n">
         <v>158.1290443401915</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>153.3079156713906</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>134.6765675909751</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>131.482142595694</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3792112354243</v>
+        <v>155.1018233351137</v>
       </c>
       <c r="H4" t="n">
-        <v>144.5106098405132</v>
+        <v>156.7879977408238</v>
       </c>
       <c r="I4" t="n">
         <v>137.0529390090937</v>
       </c>
       <c r="J4" t="n">
-        <v>36.1682683908968</v>
+        <v>50.10717381813403</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>327.4726868597083</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>299.4218868169107</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>348.2295702920109</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>366.299200219749</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
       </c>
       <c r="I5" t="n">
-        <v>93.70742637337571</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>314.4699458746968</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.2720288460951</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>124.0344738371532</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,7 +27707,7 @@
         <v>89.80805758961165</v>
       </c>
       <c r="G6" t="n">
-        <v>136.4898938890125</v>
+        <v>81.22873908524025</v>
       </c>
       <c r="H6" t="n">
         <v>103.9912405093721</v>
@@ -27749,7 +27749,7 @@
         <v>196.7240278659264</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8852226550407</v>
+        <v>177.2111975038782</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>91.17280784279694</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>122.9832146900603</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.2753302804353</v>
@@ -27795,7 +27795,7 @@
         <v>133.9289553808794</v>
       </c>
       <c r="J7" t="n">
-        <v>42.76279030041251</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>211.5447863772357</v>
       </c>
       <c r="T7" t="n">
-        <v>224.8878160949084</v>
+        <v>169.6266612911362</v>
       </c>
       <c r="U7" t="n">
         <v>286.2799939522351</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>217.2014454875973</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>231.2618435328188</v>
       </c>
       <c r="X7" t="n">
-        <v>170.4485005852649</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.3234985483226</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>253.160231646084</v>
       </c>
       <c r="D8" t="n">
-        <v>285.5709423681299</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>269.8177099473382</v>
+        <v>326.2069751641965</v>
       </c>
       <c r="F8" t="n">
         <v>294.7633856167878</v>
       </c>
       <c r="G8" t="n">
-        <v>301.2760442195642</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>319.8727099068761</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>165.4040387101213</v>
+        <v>53.29137858519765</v>
       </c>
       <c r="T8" t="n">
         <v>214.7171693596231</v>
@@ -27938,19 +27938,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>45.53242033047735</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>36.55253448447969</v>
       </c>
       <c r="G9" t="n">
-        <v>128.2816284863352</v>
+        <v>136.3194191323308</v>
       </c>
       <c r="H9" t="n">
-        <v>102.3448132540521</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>54.13711731454487</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>36.5739230774922</v>
       </c>
       <c r="S9" t="n">
-        <v>40.54833922112503</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
-        <v>83.9242348401676</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
         <v>113.7613470855986</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>55.13416097370424</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>96.79353122788854</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>34.32130252164558</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>33.30838789800765</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3104681807278</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H10" t="n">
-        <v>42.48105001084163</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I10" t="n">
-        <v>17.51829177012739</v>
+        <v>129.630951895051</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>26.57632952392145</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S10" t="n">
         <v>209.0540751673406</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,22 +28138,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-11</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>30.44457361242663</v>
       </c>
       <c r="I17" t="n">
-        <v>17.05074063895484</v>
+        <v>17.05074063895501</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>30.44457361242663</v>
       </c>
       <c r="I20" t="n">
-        <v>17.05074063895484</v>
+        <v>17.05074063895501</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>30.44457361242663</v>
       </c>
       <c r="I23" t="n">
-        <v>11.86531839261031</v>
+        <v>11.86531839261025</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="C26" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="D26" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="E26" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="F26" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="G26" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="H26" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="I26" t="n">
-        <v>11.86531839261031</v>
+        <v>11.86531839261025</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="T26" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="U26" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="V26" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="W26" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="X26" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="Y26" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="C28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="D28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="E28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="F28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="G28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="H28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="I28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="J28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="K28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="L28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="M28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="N28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="O28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="P28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="Q28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="R28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="S28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="T28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="U28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="V28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="W28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="X28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
       <c r="Y28" t="n">
-        <v>30.44457361242663</v>
+        <v>30.44457361242644</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="C29" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="D29" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="E29" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="F29" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="G29" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="H29" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="I29" t="n">
-        <v>11.86531839261031</v>
+        <v>11.86531839261025</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="T29" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="U29" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="V29" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="W29" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="X29" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="Y29" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="C31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="D31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="E31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="F31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="G31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="H31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="I31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="J31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="K31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="L31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="M31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="N31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="O31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="P31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="Q31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="R31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="S31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="T31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="U31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="V31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="W31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="X31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
       <c r="Y31" t="n">
-        <v>30.44457361242664</v>
+        <v>30.44457361242645</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="C32" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="D32" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="E32" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="F32" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="G32" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="H32" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="I32" t="n">
         <v>11.86531839261031</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="T32" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="U32" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="V32" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="W32" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="X32" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="Y32" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="C34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="D34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="E34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="F34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="G34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="H34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="I34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="J34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="K34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="L34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="M34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="N34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="O34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="P34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="Q34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="R34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="S34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="T34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="U34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="V34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="W34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="X34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="Y34" t="n">
-        <v>30.4445736124267</v>
+        <v>30.44457361242664</v>
       </c>
     </row>
     <row r="35">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="C44" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="D44" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="E44" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="F44" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="G44" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="H44" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="I44" t="n">
         <v>11.86531839261031</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="T44" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="U44" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="V44" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="W44" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="X44" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="Y44" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="C46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="D46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="E46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="F46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="G46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="H46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="I46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="J46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="K46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="L46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="M46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="N46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="O46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="P46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="R46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="S46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="T46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="U46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="V46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="W46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="X46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
       <c r="Y46" t="n">
-        <v>30.44457361242662</v>
+        <v>30.44457361242664</v>
       </c>
     </row>
   </sheetData>
@@ -31136,13 +31136,13 @@
         <v>152.4932852071114</v>
       </c>
       <c r="M3" t="n">
-        <v>156.0729393492555</v>
+        <v>150.1406944304191</v>
       </c>
       <c r="N3" t="n">
         <v>145.2806175105705</v>
       </c>
       <c r="O3" t="n">
-        <v>150.6029049528452</v>
+        <v>156.5351498716817</v>
       </c>
       <c r="P3" t="n">
         <v>139.3434642350965</v>
@@ -31604,10 +31604,10 @@
         <v>96.75480562798997</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L9" t="n">
-        <v>195.6037669583859</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
         <v>254.2466940469419</v>
@@ -31619,7 +31619,7 @@
         <v>243.6589731628787</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177395</v>
+        <v>141.274108769757</v>
       </c>
       <c r="Q9" t="n">
         <v>130.7252153102001</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.017188222072519</v>
+        <v>5.017188222072517</v>
       </c>
       <c r="H14" t="n">
-        <v>51.38227887930019</v>
+        <v>51.38227887930018</v>
       </c>
       <c r="I14" t="n">
-        <v>193.425148931451</v>
+        <v>193.4251489314509</v>
       </c>
       <c r="J14" t="n">
-        <v>425.8275788631278</v>
+        <v>425.8275788631277</v>
       </c>
       <c r="K14" t="n">
-        <v>638.2051563034577</v>
+        <v>638.2051563034574</v>
       </c>
       <c r="L14" t="n">
-        <v>791.7499303547097</v>
+        <v>791.7499303547094</v>
       </c>
       <c r="M14" t="n">
-        <v>880.9743513989918</v>
+        <v>880.9743513989915</v>
       </c>
       <c r="N14" t="n">
-        <v>895.2294374349555</v>
+        <v>895.2294374349551</v>
       </c>
       <c r="O14" t="n">
-        <v>845.3397720517218</v>
+        <v>845.3397720517214</v>
       </c>
       <c r="P14" t="n">
-        <v>721.4779378193064</v>
+        <v>721.477937819306</v>
       </c>
       <c r="Q14" t="n">
-        <v>541.7998846163341</v>
+        <v>541.7998846163339</v>
       </c>
       <c r="R14" t="n">
-        <v>315.1609496547632</v>
+        <v>315.160949654763</v>
       </c>
       <c r="S14" t="n">
         <v>114.3291766104776</v>
       </c>
       <c r="T14" t="n">
-        <v>21.96274144212246</v>
+        <v>21.96274144212245</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4013750577658014</v>
+        <v>0.4013750577658013</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.684432358630596</v>
+        <v>2.684432358630595</v>
       </c>
       <c r="H15" t="n">
-        <v>25.92596514782707</v>
+        <v>25.92596514782706</v>
       </c>
       <c r="I15" t="n">
-        <v>92.42453515460605</v>
+        <v>92.424535154606</v>
       </c>
       <c r="J15" t="n">
-        <v>253.6199887599196</v>
+        <v>253.6199887599195</v>
       </c>
       <c r="K15" t="n">
-        <v>433.4769567881695</v>
+        <v>433.4769567881693</v>
       </c>
       <c r="L15" t="n">
-        <v>582.8632627807352</v>
+        <v>582.8632627807351</v>
       </c>
       <c r="M15" t="n">
-        <v>680.1739357810942</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>698.1761159405074</v>
+        <v>698.1761159405072</v>
       </c>
       <c r="O15" t="n">
-        <v>638.6947463097979</v>
+        <v>638.6947463097977</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>501.7321643659856</v>
       </c>
       <c r="Q15" t="n">
-        <v>151.3925121127272</v>
+        <v>342.6654358139685</v>
       </c>
       <c r="R15" t="n">
-        <v>166.6702827577839</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>49.86215367894984</v>
+        <v>49.86215367894982</v>
       </c>
       <c r="T15" t="n">
         <v>10.82014621746279</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.250537913548515</v>
+        <v>2.250537913548514</v>
       </c>
       <c r="H16" t="n">
-        <v>20.00932799500408</v>
+        <v>20.00932799500407</v>
       </c>
       <c r="I16" t="n">
-        <v>67.67981289107716</v>
+        <v>67.67981289107715</v>
       </c>
       <c r="J16" t="n">
-        <v>159.11303048788</v>
+        <v>159.1130304878799</v>
       </c>
       <c r="K16" t="n">
-        <v>261.4715866831819</v>
+        <v>261.4715866831818</v>
       </c>
       <c r="L16" t="n">
-        <v>334.593609437931</v>
+        <v>334.5936094379309</v>
       </c>
       <c r="M16" t="n">
-        <v>352.7820476665185</v>
+        <v>352.7820476665183</v>
       </c>
       <c r="N16" t="n">
-        <v>344.3936790796561</v>
+        <v>344.393679079656</v>
       </c>
       <c r="O16" t="n">
-        <v>318.1033043622938</v>
+        <v>318.1033043622937</v>
       </c>
       <c r="P16" t="n">
-        <v>272.1923309259039</v>
+        <v>272.1923309259038</v>
       </c>
       <c r="Q16" t="n">
         <v>188.4518611063215</v>
       </c>
       <c r="R16" t="n">
-        <v>101.1923683673723</v>
+        <v>101.1923683673722</v>
       </c>
       <c r="S16" t="n">
-        <v>39.22073800247728</v>
+        <v>39.22073800247727</v>
       </c>
       <c r="T16" t="n">
-        <v>9.615934721525468</v>
+        <v>9.615934721525464</v>
       </c>
       <c r="U16" t="n">
         <v>0.1227566134662827</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.017188222072521</v>
+        <v>5.017188222072517</v>
       </c>
       <c r="H17" t="n">
-        <v>51.38227887930022</v>
+        <v>51.38227887930018</v>
       </c>
       <c r="I17" t="n">
-        <v>193.4251489314511</v>
+        <v>193.4251489314509</v>
       </c>
       <c r="J17" t="n">
-        <v>425.8275788631281</v>
+        <v>425.8275788631277</v>
       </c>
       <c r="K17" t="n">
-        <v>638.205156303458</v>
+        <v>638.2051563034574</v>
       </c>
       <c r="L17" t="n">
-        <v>791.7499303547102</v>
+        <v>791.7499303547094</v>
       </c>
       <c r="M17" t="n">
-        <v>880.9743513989923</v>
+        <v>880.9743513989915</v>
       </c>
       <c r="N17" t="n">
-        <v>895.2294374349559</v>
+        <v>895.2294374349551</v>
       </c>
       <c r="O17" t="n">
-        <v>845.3397720517222</v>
+        <v>845.3397720517214</v>
       </c>
       <c r="P17" t="n">
-        <v>721.4779378193067</v>
+        <v>721.477937819306</v>
       </c>
       <c r="Q17" t="n">
-        <v>541.7998846163343</v>
+        <v>541.7998846163339</v>
       </c>
       <c r="R17" t="n">
-        <v>315.1609496547633</v>
+        <v>315.160949654763</v>
       </c>
       <c r="S17" t="n">
-        <v>114.3291766104777</v>
+        <v>114.3291766104776</v>
       </c>
       <c r="T17" t="n">
-        <v>21.96274144212247</v>
+        <v>21.96274144212245</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4013750577658016</v>
+        <v>0.4013750577658013</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.684432358630597</v>
+        <v>2.684432358630595</v>
       </c>
       <c r="H18" t="n">
-        <v>25.92596514782709</v>
+        <v>25.92596514782706</v>
       </c>
       <c r="I18" t="n">
-        <v>92.42453515460609</v>
+        <v>92.424535154606</v>
       </c>
       <c r="J18" t="n">
-        <v>253.6199887599197</v>
+        <v>253.6199887599195</v>
       </c>
       <c r="K18" t="n">
-        <v>433.4769567881697</v>
+        <v>380.6588789233324</v>
       </c>
       <c r="L18" t="n">
-        <v>582.8632627807356</v>
+        <v>582.8632627807351</v>
       </c>
       <c r="M18" t="n">
-        <v>680.1739357810945</v>
+        <v>680.173935781094</v>
       </c>
       <c r="N18" t="n">
-        <v>149.2595362103133</v>
+        <v>698.1761159405072</v>
       </c>
       <c r="O18" t="n">
-        <v>638.6947463097982</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>512.6088422371006</v>
+        <v>512.6088422371001</v>
       </c>
       <c r="Q18" t="n">
-        <v>342.6654358139689</v>
+        <v>342.6654358139685</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>49.86215367894987</v>
+        <v>49.86215367894982</v>
       </c>
       <c r="T18" t="n">
-        <v>10.8201462174628</v>
+        <v>10.82014621746279</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1766073920151709</v>
+        <v>0.1766073920151708</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.250537913548516</v>
+        <v>2.250537913548514</v>
       </c>
       <c r="H19" t="n">
-        <v>20.00932799500409</v>
+        <v>20.00932799500407</v>
       </c>
       <c r="I19" t="n">
-        <v>67.6798128910772</v>
+        <v>67.67981289107715</v>
       </c>
       <c r="J19" t="n">
-        <v>159.1130304878801</v>
+        <v>159.1130304878799</v>
       </c>
       <c r="K19" t="n">
-        <v>261.4715866831821</v>
+        <v>261.4715866831818</v>
       </c>
       <c r="L19" t="n">
-        <v>334.5936094379312</v>
+        <v>334.5936094379309</v>
       </c>
       <c r="M19" t="n">
-        <v>352.7820476665187</v>
+        <v>352.7820476665183</v>
       </c>
       <c r="N19" t="n">
-        <v>344.3936790796563</v>
+        <v>344.393679079656</v>
       </c>
       <c r="O19" t="n">
-        <v>318.103304362294</v>
+        <v>318.1033043622937</v>
       </c>
       <c r="P19" t="n">
-        <v>272.192330925904</v>
+        <v>272.1923309259038</v>
       </c>
       <c r="Q19" t="n">
-        <v>188.4518611063216</v>
+        <v>188.4518611063215</v>
       </c>
       <c r="R19" t="n">
-        <v>101.1923683673723</v>
+        <v>101.1923683673722</v>
       </c>
       <c r="S19" t="n">
-        <v>39.2207380024773</v>
+        <v>39.22073800247727</v>
       </c>
       <c r="T19" t="n">
-        <v>9.615934721525473</v>
+        <v>9.615934721525464</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1227566134662828</v>
+        <v>0.1227566134662827</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.017188222072521</v>
+        <v>5.017188222072517</v>
       </c>
       <c r="H20" t="n">
-        <v>51.38227887930022</v>
+        <v>51.38227887930018</v>
       </c>
       <c r="I20" t="n">
-        <v>193.4251489314511</v>
+        <v>193.4251489314509</v>
       </c>
       <c r="J20" t="n">
-        <v>425.8275788631281</v>
+        <v>425.8275788631277</v>
       </c>
       <c r="K20" t="n">
-        <v>638.205156303458</v>
+        <v>638.2051563034574</v>
       </c>
       <c r="L20" t="n">
-        <v>791.7499303547102</v>
+        <v>791.7499303547094</v>
       </c>
       <c r="M20" t="n">
-        <v>880.9743513989923</v>
+        <v>880.9743513989915</v>
       </c>
       <c r="N20" t="n">
-        <v>895.2294374349559</v>
+        <v>895.2294374349551</v>
       </c>
       <c r="O20" t="n">
-        <v>845.3397720517222</v>
+        <v>845.3397720517214</v>
       </c>
       <c r="P20" t="n">
-        <v>721.4779378193067</v>
+        <v>721.477937819306</v>
       </c>
       <c r="Q20" t="n">
-        <v>541.7998846163343</v>
+        <v>541.7998846163339</v>
       </c>
       <c r="R20" t="n">
-        <v>315.1609496547633</v>
+        <v>315.160949654763</v>
       </c>
       <c r="S20" t="n">
-        <v>114.3291766104777</v>
+        <v>114.3291766104776</v>
       </c>
       <c r="T20" t="n">
-        <v>21.96274144212247</v>
+        <v>21.96274144212245</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4013750577658016</v>
+        <v>0.4013750577658013</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.684432358630597</v>
+        <v>2.684432358630595</v>
       </c>
       <c r="H21" t="n">
-        <v>25.92596514782709</v>
+        <v>25.92596514782706</v>
       </c>
       <c r="I21" t="n">
-        <v>92.42453515460609</v>
+        <v>92.424535154606</v>
       </c>
       <c r="J21" t="n">
-        <v>253.6199887599197</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>433.4769567881697</v>
+        <v>433.4769567881693</v>
       </c>
       <c r="L21" t="n">
-        <v>582.8632627807356</v>
+        <v>582.8632627807351</v>
       </c>
       <c r="M21" t="n">
-        <v>680.1739357810945</v>
+        <v>680.173935781094</v>
       </c>
       <c r="N21" t="n">
-        <v>149.2595362103133</v>
+        <v>698.1761159405072</v>
       </c>
       <c r="O21" t="n">
-        <v>638.6947463097982</v>
+        <v>638.6947463097977</v>
       </c>
       <c r="P21" t="n">
-        <v>512.6088422371006</v>
+        <v>293.1582863281097</v>
       </c>
       <c r="Q21" t="n">
-        <v>342.6654358139689</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>49.86215367894987</v>
+        <v>49.86215367894982</v>
       </c>
       <c r="T21" t="n">
-        <v>10.8201462174628</v>
+        <v>10.82014621746279</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1766073920151709</v>
+        <v>0.1766073920151708</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.250537913548516</v>
+        <v>2.250537913548514</v>
       </c>
       <c r="H22" t="n">
-        <v>20.00932799500409</v>
+        <v>20.00932799500407</v>
       </c>
       <c r="I22" t="n">
-        <v>67.6798128910772</v>
+        <v>67.67981289107715</v>
       </c>
       <c r="J22" t="n">
-        <v>159.1130304878801</v>
+        <v>159.1130304878799</v>
       </c>
       <c r="K22" t="n">
-        <v>261.4715866831821</v>
+        <v>261.4715866831818</v>
       </c>
       <c r="L22" t="n">
-        <v>334.5936094379312</v>
+        <v>334.5936094379309</v>
       </c>
       <c r="M22" t="n">
-        <v>352.7820476665187</v>
+        <v>352.7820476665183</v>
       </c>
       <c r="N22" t="n">
-        <v>344.3936790796563</v>
+        <v>344.393679079656</v>
       </c>
       <c r="O22" t="n">
-        <v>318.103304362294</v>
+        <v>318.1033043622937</v>
       </c>
       <c r="P22" t="n">
-        <v>272.192330925904</v>
+        <v>272.1923309259038</v>
       </c>
       <c r="Q22" t="n">
-        <v>188.4518611063216</v>
+        <v>188.4518611063215</v>
       </c>
       <c r="R22" t="n">
-        <v>101.1923683673723</v>
+        <v>101.1923683673722</v>
       </c>
       <c r="S22" t="n">
-        <v>39.2207380024773</v>
+        <v>39.22073800247727</v>
       </c>
       <c r="T22" t="n">
-        <v>9.615934721525473</v>
+        <v>9.615934721525464</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1227566134662828</v>
+        <v>0.1227566134662827</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.151691101168418</v>
+        <v>5.151691101168419</v>
       </c>
       <c r="H23" t="n">
-        <v>52.75975648984107</v>
+        <v>52.75975648984108</v>
       </c>
       <c r="I23" t="n">
-        <v>198.6105711777956</v>
+        <v>198.6105711777957</v>
       </c>
       <c r="J23" t="n">
-        <v>437.2433425977934</v>
+        <v>437.2433425977935</v>
       </c>
       <c r="K23" t="n">
-        <v>655.3144269102527</v>
+        <v>655.3144269102528</v>
       </c>
       <c r="L23" t="n">
-        <v>812.9754934476358</v>
+        <v>812.9754934476359</v>
       </c>
       <c r="M23" t="n">
-        <v>904.5918800680396</v>
+        <v>904.5918800680397</v>
       </c>
       <c r="N23" t="n">
-        <v>919.2291224092344</v>
+        <v>919.2291224092346</v>
       </c>
       <c r="O23" t="n">
-        <v>868.0019940219909</v>
+        <v>868.0019940219911</v>
       </c>
       <c r="P23" t="n">
-        <v>740.8196199618955</v>
+        <v>740.8196199618956</v>
       </c>
       <c r="Q23" t="n">
         <v>556.3246824013014</v>
       </c>
       <c r="R23" t="n">
-        <v>323.6099161337709</v>
+        <v>323.609916133771</v>
       </c>
       <c r="S23" t="n">
-        <v>117.3941609678754</v>
+        <v>117.3941609678755</v>
       </c>
       <c r="T23" t="n">
         <v>22.55152779536476</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4121352880934733</v>
+        <v>0.4121352880934734</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,31 +32783,31 @@
         <v>26.62099925884199</v>
       </c>
       <c r="I24" t="n">
-        <v>94.90229072747938</v>
+        <v>94.9022907274794</v>
       </c>
       <c r="J24" t="n">
         <v>260.4191394344756</v>
       </c>
       <c r="K24" t="n">
-        <v>445.0977882437717</v>
+        <v>445.0977882437718</v>
       </c>
       <c r="L24" t="n">
-        <v>598.4889047724671</v>
+        <v>598.4889047724672</v>
       </c>
       <c r="M24" t="n">
-        <v>698.4083229715263</v>
+        <v>698.4083229715264</v>
       </c>
       <c r="N24" t="n">
-        <v>656.1999312537806</v>
+        <v>716.893113101758</v>
       </c>
       <c r="O24" t="n">
-        <v>655.8171420501367</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>526.3510743557958</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>200.1328229022703</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32856,31 +32856,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.310871274683949</v>
+        <v>2.31087127468395</v>
       </c>
       <c r="H25" t="n">
-        <v>20.54574642400822</v>
+        <v>20.54574642400823</v>
       </c>
       <c r="I25" t="n">
-        <v>69.49420160595007</v>
+        <v>69.49420160595008</v>
       </c>
       <c r="J25" t="n">
-        <v>163.3785991201552</v>
+        <v>163.3785991201553</v>
       </c>
       <c r="K25" t="n">
         <v>268.481226276917</v>
       </c>
       <c r="L25" t="n">
-        <v>343.5635347834665</v>
+        <v>343.5635347834666</v>
       </c>
       <c r="M25" t="n">
-        <v>362.2395762670485</v>
+        <v>362.2395762670486</v>
       </c>
       <c r="N25" t="n">
-        <v>353.6263287886813</v>
+        <v>353.6263287886814</v>
       </c>
       <c r="O25" t="n">
-        <v>326.6311507162369</v>
+        <v>326.631150716237</v>
       </c>
       <c r="P25" t="n">
         <v>279.4893767126841</v>
@@ -32892,10 +32892,10 @@
         <v>103.9051756780619</v>
       </c>
       <c r="S25" t="n">
-        <v>40.27218394153754</v>
+        <v>40.27218394153755</v>
       </c>
       <c r="T25" t="n">
-        <v>9.873722719104146</v>
+        <v>9.873722719104148</v>
       </c>
       <c r="U25" t="n">
         <v>0.1260475240736701</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.151691101168418</v>
+        <v>5.151691101168419</v>
       </c>
       <c r="H26" t="n">
-        <v>52.75975648984107</v>
+        <v>52.75975648984108</v>
       </c>
       <c r="I26" t="n">
-        <v>198.6105711777956</v>
+        <v>198.6105711777957</v>
       </c>
       <c r="J26" t="n">
-        <v>437.2433425977934</v>
+        <v>437.2433425977935</v>
       </c>
       <c r="K26" t="n">
-        <v>655.3144269102527</v>
+        <v>655.3144269102528</v>
       </c>
       <c r="L26" t="n">
-        <v>812.9754934476358</v>
+        <v>812.9754934476359</v>
       </c>
       <c r="M26" t="n">
-        <v>904.5918800680396</v>
+        <v>904.5918800680397</v>
       </c>
       <c r="N26" t="n">
-        <v>919.2291224092344</v>
+        <v>919.2291224092346</v>
       </c>
       <c r="O26" t="n">
-        <v>868.0019940219909</v>
+        <v>868.0019940219911</v>
       </c>
       <c r="P26" t="n">
-        <v>740.8196199618955</v>
+        <v>740.8196199618956</v>
       </c>
       <c r="Q26" t="n">
         <v>556.3246824013014</v>
       </c>
       <c r="R26" t="n">
-        <v>323.6099161337709</v>
+        <v>323.609916133771</v>
       </c>
       <c r="S26" t="n">
-        <v>117.3941609678754</v>
+        <v>117.3941609678755</v>
       </c>
       <c r="T26" t="n">
         <v>22.55152779536476</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4121352880934733</v>
+        <v>0.4121352880934734</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,28 +33020,28 @@
         <v>26.62099925884199</v>
       </c>
       <c r="I27" t="n">
-        <v>94.90229072747938</v>
+        <v>94.9022907274794</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>199.7259575864975</v>
       </c>
       <c r="K27" t="n">
-        <v>445.0977882437717</v>
+        <v>445.0977882437718</v>
       </c>
       <c r="L27" t="n">
-        <v>279.0005687508329</v>
+        <v>598.4889047724672</v>
       </c>
       <c r="M27" t="n">
-        <v>698.4083229715263</v>
+        <v>698.4083229715264</v>
       </c>
       <c r="N27" t="n">
-        <v>716.8931131017579</v>
+        <v>716.893113101758</v>
       </c>
       <c r="O27" t="n">
-        <v>655.8171420501367</v>
+        <v>655.8171420501368</v>
       </c>
       <c r="P27" t="n">
-        <v>526.3510743557957</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33093,31 +33093,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.310871274683949</v>
+        <v>2.31087127468395</v>
       </c>
       <c r="H28" t="n">
-        <v>20.54574642400822</v>
+        <v>20.54574642400823</v>
       </c>
       <c r="I28" t="n">
-        <v>69.49420160595007</v>
+        <v>69.49420160595008</v>
       </c>
       <c r="J28" t="n">
-        <v>163.3785991201552</v>
+        <v>163.3785991201553</v>
       </c>
       <c r="K28" t="n">
         <v>268.481226276917</v>
       </c>
       <c r="L28" t="n">
-        <v>343.5635347834665</v>
+        <v>343.5635347834666</v>
       </c>
       <c r="M28" t="n">
-        <v>362.2395762670485</v>
+        <v>362.2395762670486</v>
       </c>
       <c r="N28" t="n">
-        <v>353.6263287886813</v>
+        <v>353.6263287886814</v>
       </c>
       <c r="O28" t="n">
-        <v>326.6311507162369</v>
+        <v>326.631150716237</v>
       </c>
       <c r="P28" t="n">
         <v>279.4893767126841</v>
@@ -33129,10 +33129,10 @@
         <v>103.9051756780619</v>
       </c>
       <c r="S28" t="n">
-        <v>40.27218394153754</v>
+        <v>40.27218394153755</v>
       </c>
       <c r="T28" t="n">
-        <v>9.873722719104146</v>
+        <v>9.873722719104148</v>
       </c>
       <c r="U28" t="n">
         <v>0.1260475240736701</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.151691101168418</v>
+        <v>5.151691101168419</v>
       </c>
       <c r="H29" t="n">
-        <v>52.75975648984107</v>
+        <v>52.75975648984108</v>
       </c>
       <c r="I29" t="n">
-        <v>198.6105711777956</v>
+        <v>198.6105711777957</v>
       </c>
       <c r="J29" t="n">
-        <v>437.2433425977934</v>
+        <v>437.2433425977935</v>
       </c>
       <c r="K29" t="n">
-        <v>655.3144269102527</v>
+        <v>655.3144269102528</v>
       </c>
       <c r="L29" t="n">
-        <v>812.9754934476358</v>
+        <v>812.9754934476359</v>
       </c>
       <c r="M29" t="n">
-        <v>904.5918800680396</v>
+        <v>904.5918800680397</v>
       </c>
       <c r="N29" t="n">
-        <v>919.2291224092344</v>
+        <v>919.2291224092346</v>
       </c>
       <c r="O29" t="n">
-        <v>868.0019940219909</v>
+        <v>868.0019940219911</v>
       </c>
       <c r="P29" t="n">
-        <v>740.8196199618955</v>
+        <v>740.8196199618956</v>
       </c>
       <c r="Q29" t="n">
         <v>556.3246824013014</v>
       </c>
       <c r="R29" t="n">
-        <v>323.6099161337709</v>
+        <v>323.609916133771</v>
       </c>
       <c r="S29" t="n">
-        <v>117.3941609678754</v>
+        <v>117.3941609678755</v>
       </c>
       <c r="T29" t="n">
         <v>22.55152779536476</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4121352880934733</v>
+        <v>0.4121352880934734</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,28 +33257,28 @@
         <v>26.62099925884199</v>
       </c>
       <c r="I30" t="n">
-        <v>94.90229072747938</v>
+        <v>94.9022907274794</v>
       </c>
       <c r="J30" t="n">
-        <v>260.4191394344756</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>445.0977882437717</v>
+        <v>445.0977882437718</v>
       </c>
       <c r="L30" t="n">
-        <v>598.4889047724671</v>
+        <v>598.4889047724672</v>
       </c>
       <c r="M30" t="n">
-        <v>698.4083229715263</v>
+        <v>698.4083229715264</v>
       </c>
       <c r="N30" t="n">
-        <v>716.8931131017579</v>
+        <v>716.893113101758</v>
       </c>
       <c r="O30" t="n">
-        <v>202.7472932606937</v>
+        <v>655.8171420501368</v>
       </c>
       <c r="P30" t="n">
-        <v>526.3510743557957</v>
+        <v>206.8627383341615</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33330,31 +33330,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.310871274683949</v>
+        <v>2.31087127468395</v>
       </c>
       <c r="H31" t="n">
-        <v>20.54574642400822</v>
+        <v>20.54574642400823</v>
       </c>
       <c r="I31" t="n">
-        <v>69.49420160595007</v>
+        <v>69.49420160595008</v>
       </c>
       <c r="J31" t="n">
-        <v>163.3785991201552</v>
+        <v>163.3785991201553</v>
       </c>
       <c r="K31" t="n">
         <v>268.481226276917</v>
       </c>
       <c r="L31" t="n">
-        <v>343.5635347834665</v>
+        <v>343.5635347834666</v>
       </c>
       <c r="M31" t="n">
-        <v>362.2395762670485</v>
+        <v>362.2395762670486</v>
       </c>
       <c r="N31" t="n">
-        <v>353.6263287886813</v>
+        <v>353.6263287886814</v>
       </c>
       <c r="O31" t="n">
-        <v>326.6311507162369</v>
+        <v>326.631150716237</v>
       </c>
       <c r="P31" t="n">
         <v>279.4893767126841</v>
@@ -33366,10 +33366,10 @@
         <v>103.9051756780619</v>
       </c>
       <c r="S31" t="n">
-        <v>40.27218394153754</v>
+        <v>40.27218394153755</v>
       </c>
       <c r="T31" t="n">
-        <v>9.873722719104146</v>
+        <v>9.873722719104148</v>
       </c>
       <c r="U31" t="n">
         <v>0.1260475240736701</v>
@@ -33497,13 +33497,13 @@
         <v>94.90229072747938</v>
       </c>
       <c r="J33" t="n">
-        <v>260.4191394344756</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>215.3464798793962</v>
+        <v>586.2569180202456</v>
       </c>
       <c r="M33" t="n">
         <v>698.4083229715263</v>
@@ -33518,10 +33518,10 @@
         <v>526.3510743557957</v>
       </c>
       <c r="Q33" t="n">
-        <v>351.8517540551031</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.1384493679234</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.19887913769107</v>
@@ -33746,13 +33746,13 @@
         <v>698.4083229715263</v>
       </c>
       <c r="N36" t="n">
-        <v>263.823264312315</v>
+        <v>716.8931131017579</v>
       </c>
       <c r="O36" t="n">
-        <v>655.8171420501367</v>
+        <v>595.1239602021594</v>
       </c>
       <c r="P36" t="n">
-        <v>526.3510743557957</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33983,13 +33983,13 @@
         <v>698.4083229715263</v>
       </c>
       <c r="N39" t="n">
-        <v>263.823264312315</v>
+        <v>716.8931131017579</v>
       </c>
       <c r="O39" t="n">
-        <v>655.8171420501367</v>
+        <v>595.1239602021594</v>
       </c>
       <c r="P39" t="n">
-        <v>526.3510743557957</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34223,10 +34223,10 @@
         <v>716.8931131017579</v>
       </c>
       <c r="O42" t="n">
-        <v>202.7472932606937</v>
+        <v>595.1239602021594</v>
       </c>
       <c r="P42" t="n">
-        <v>526.3510743557957</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34390,7 +34390,7 @@
         <v>556.3246824013014</v>
       </c>
       <c r="R44" t="n">
-        <v>323.6099161337706</v>
+        <v>323.6099161337709</v>
       </c>
       <c r="S44" t="n">
         <v>117.3941609678754</v>
@@ -34445,10 +34445,10 @@
         <v>94.90229072747938</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>260.4191394344756</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>445.0977882437717</v>
       </c>
       <c r="L45" t="n">
         <v>598.4889047724671</v>
@@ -34460,16 +34460,16 @@
         <v>716.8931131017579</v>
       </c>
       <c r="O45" t="n">
-        <v>655.8171420501367</v>
+        <v>595.1239602021594</v>
       </c>
       <c r="P45" t="n">
-        <v>276.7901622305335</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>351.8517540551031</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.1384493679234</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.19887913769107</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>13.93890542723723</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>4.244969452351325</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>9.130747876815718</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>4.244969452351328</v>
+      </c>
+      <c r="Q2" t="n">
         <v>13.93890542723723</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>13.93890542723723</v>
       </c>
       <c r="M3" t="n">
-        <v>13.93890542723723</v>
+        <v>8.00666050840079</v>
       </c>
       <c r="N3" t="n">
         <v>13.93890542723723</v>
       </c>
       <c r="O3" t="n">
-        <v>8.006660508400794</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="P3" t="n">
         <v>5.369056820766247</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>13.93890542723723</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13.37571732916704</v>
       </c>
       <c r="N4" t="n">
         <v>13.93890542723723</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="P4" t="n">
-        <v>13.93890542723723</v>
+        <v>13.37571732916704</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>55.26115480377223</v>
       </c>
       <c r="O5" t="n">
-        <v>38.71158060333218</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="P5" t="n">
-        <v>53.57562432536012</v>
+        <v>37.02605012492007</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>55.26115480377223</v>
+      </c>
+      <c r="M7" t="n">
         <v>53.02838087230671</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>55.26115480377223</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="P7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L9" t="n">
-        <v>57.04938717851169</v>
+        <v>83.80515100391688</v>
       </c>
       <c r="M9" t="n">
         <v>112.1126601249236</v>
@@ -35267,7 +35267,7 @@
         <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340929</v>
+        <v>7.299701355426773</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,7 +35334,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.46423159176986</v>
+        <v>107.5828556754317</v>
       </c>
       <c r="M10" t="n">
         <v>112.1126601249236</v>
@@ -35346,7 +35346,7 @@
         <v>112.1126601249236</v>
       </c>
       <c r="P10" t="n">
-        <v>101.1186240836618</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451101</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
         <v>78.39423853789366</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>244.7816743364415</v>
+        <v>244.7816743364414</v>
       </c>
       <c r="K14" t="n">
-        <v>418.1153052584771</v>
+        <v>418.1153052584769</v>
       </c>
       <c r="L14" t="n">
-        <v>555.9835153847225</v>
+        <v>555.9835153847221</v>
       </c>
       <c r="M14" t="n">
-        <v>650.6281181717191</v>
+        <v>650.6281181717188</v>
       </c>
       <c r="N14" t="n">
-        <v>665.8163738383646</v>
+        <v>665.8163738383641</v>
       </c>
       <c r="O14" t="n">
-        <v>615.241560630035</v>
+        <v>615.2415606300347</v>
       </c>
       <c r="P14" t="n">
-        <v>490.2449420640368</v>
+        <v>490.2449420640365</v>
       </c>
       <c r="Q14" t="n">
-        <v>319.4941947418846</v>
+        <v>319.4941947418844</v>
       </c>
       <c r="R14" t="n">
-        <v>99.57541184063103</v>
+        <v>99.57541184063092</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>126.7823620932529</v>
+        <v>126.7823620932528</v>
       </c>
       <c r="K15" t="n">
-        <v>295.6355178138105</v>
+        <v>295.6355178138103</v>
       </c>
       <c r="L15" t="n">
-        <v>444.308883000861</v>
+        <v>444.3088830008609</v>
       </c>
       <c r="M15" t="n">
-        <v>538.0399018590758</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>566.8344038571742</v>
+        <v>566.8344038571739</v>
       </c>
       <c r="O15" t="n">
-        <v>496.0985018653535</v>
+        <v>496.0985018653532</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>367.7577569516553</v>
       </c>
       <c r="Q15" t="n">
-        <v>11.4107380267057</v>
+        <v>202.683661727947</v>
       </c>
       <c r="R15" t="n">
-        <v>20.99077879381994</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.75385037120719</v>
+        <v>65.75385037120731</v>
       </c>
       <c r="K16" t="n">
-        <v>239.202094857299</v>
+        <v>239.2020948572991</v>
       </c>
       <c r="L16" t="n">
-        <v>362.1836346982471</v>
+        <v>362.1836346982472</v>
       </c>
       <c r="M16" t="n">
-        <v>392.365924628359</v>
+        <v>392.3659246283591</v>
       </c>
       <c r="N16" t="n">
         <v>388.5258514588847</v>
@@ -35823,7 +35823,7 @@
         <v>269.4708901907974</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.2898178546271</v>
+        <v>102.2898178546273</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>244.7816743364418</v>
+        <v>244.7816743364414</v>
       </c>
       <c r="K17" t="n">
-        <v>418.1153052584775</v>
+        <v>418.1153052584769</v>
       </c>
       <c r="L17" t="n">
-        <v>555.983515384723</v>
+        <v>555.9835153847221</v>
       </c>
       <c r="M17" t="n">
-        <v>650.6281181717196</v>
+        <v>650.6281181717188</v>
       </c>
       <c r="N17" t="n">
-        <v>665.8163738383651</v>
+        <v>665.8163738383641</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2415606300355</v>
+        <v>615.2415606300347</v>
       </c>
       <c r="P17" t="n">
-        <v>490.2449420640372</v>
+        <v>490.2449420640365</v>
       </c>
       <c r="Q17" t="n">
-        <v>319.4941947418848</v>
+        <v>319.4941947418844</v>
       </c>
       <c r="R17" t="n">
-        <v>99.5754118406312</v>
+        <v>99.57541184063092</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>126.782362093253</v>
+        <v>126.7823620932528</v>
       </c>
       <c r="K18" t="n">
-        <v>295.6355178138107</v>
+        <v>242.8174399489734</v>
       </c>
       <c r="L18" t="n">
-        <v>444.3088830008614</v>
+        <v>444.3088830008609</v>
       </c>
       <c r="M18" t="n">
-        <v>538.0399018590763</v>
+        <v>538.0399018590756</v>
       </c>
       <c r="N18" t="n">
-        <v>17.91782412697998</v>
+        <v>566.8344038571739</v>
       </c>
       <c r="O18" t="n">
-        <v>496.0985018653538</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>378.6344348227703</v>
+        <v>378.6344348227699</v>
       </c>
       <c r="Q18" t="n">
-        <v>202.6836617279474</v>
+        <v>202.683661727947</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>96.1984239836339</v>
+        <v>96.19842398363377</v>
       </c>
       <c r="K19" t="n">
-        <v>269.6466684697259</v>
+        <v>269.6466684697256</v>
       </c>
       <c r="L19" t="n">
-        <v>392.628208310674</v>
+        <v>392.6282083106737</v>
       </c>
       <c r="M19" t="n">
-        <v>422.8104982407859</v>
+        <v>422.8104982407855</v>
       </c>
       <c r="N19" t="n">
-        <v>418.9704250713115</v>
+        <v>418.9704250713112</v>
       </c>
       <c r="O19" t="n">
-        <v>373.1330058887602</v>
+        <v>373.13300588876</v>
       </c>
       <c r="P19" t="n">
-        <v>299.9154638032241</v>
+        <v>299.9154638032239</v>
       </c>
       <c r="Q19" t="n">
-        <v>132.7343914670539</v>
+        <v>132.7343914670537</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>244.7816743364418</v>
+        <v>244.7816743364414</v>
       </c>
       <c r="K20" t="n">
-        <v>418.1153052584775</v>
+        <v>418.1153052584769</v>
       </c>
       <c r="L20" t="n">
-        <v>555.983515384723</v>
+        <v>555.9835153847221</v>
       </c>
       <c r="M20" t="n">
-        <v>650.6281181717196</v>
+        <v>650.6281181717188</v>
       </c>
       <c r="N20" t="n">
-        <v>665.8163738383651</v>
+        <v>665.8163738383641</v>
       </c>
       <c r="O20" t="n">
-        <v>615.2415606300355</v>
+        <v>615.2415606300347</v>
       </c>
       <c r="P20" t="n">
-        <v>490.2449420640372</v>
+        <v>490.2449420640365</v>
       </c>
       <c r="Q20" t="n">
-        <v>319.4941947418848</v>
+        <v>319.4941947418844</v>
       </c>
       <c r="R20" t="n">
-        <v>99.5754118406312</v>
+        <v>99.57541184063092</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>126.782362093253</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>295.6355178138107</v>
+        <v>295.6355178138103</v>
       </c>
       <c r="L21" t="n">
-        <v>444.3088830008614</v>
+        <v>444.3088830008609</v>
       </c>
       <c r="M21" t="n">
-        <v>538.0399018590763</v>
+        <v>538.0399018590756</v>
       </c>
       <c r="N21" t="n">
-        <v>17.91782412697998</v>
+        <v>566.8344038571739</v>
       </c>
       <c r="O21" t="n">
-        <v>496.0985018653538</v>
+        <v>496.0985018653532</v>
       </c>
       <c r="P21" t="n">
-        <v>378.6344348227703</v>
+        <v>159.1838789137795</v>
       </c>
       <c r="Q21" t="n">
-        <v>202.6836617279474</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>96.1984239836339</v>
+        <v>96.19842398363377</v>
       </c>
       <c r="K22" t="n">
-        <v>269.6466684697259</v>
+        <v>269.6466684697256</v>
       </c>
       <c r="L22" t="n">
-        <v>392.628208310674</v>
+        <v>392.6282083106736</v>
       </c>
       <c r="M22" t="n">
-        <v>422.8104982407859</v>
+        <v>422.8104982407855</v>
       </c>
       <c r="N22" t="n">
-        <v>418.9704250713115</v>
+        <v>418.9704250713111</v>
       </c>
       <c r="O22" t="n">
-        <v>373.1330058887602</v>
+        <v>373.13300588876</v>
       </c>
       <c r="P22" t="n">
-        <v>299.9154638032241</v>
+        <v>299.9154638032239</v>
       </c>
       <c r="Q22" t="n">
-        <v>132.7343914670539</v>
+        <v>132.7343914670537</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.1974380711071</v>
+        <v>256.1974380711072</v>
       </c>
       <c r="K23" t="n">
-        <v>435.2245758652721</v>
+        <v>435.2245758652722</v>
       </c>
       <c r="L23" t="n">
-        <v>577.2090784776485</v>
+        <v>577.2090784776487</v>
       </c>
       <c r="M23" t="n">
-        <v>674.2456468407669</v>
+        <v>674.245646840767</v>
       </c>
       <c r="N23" t="n">
-        <v>689.8160588126434</v>
+        <v>689.8160588126436</v>
       </c>
       <c r="O23" t="n">
-        <v>637.9037826003041</v>
+        <v>637.9037826003043</v>
       </c>
       <c r="P23" t="n">
-        <v>509.5866242066259</v>
+        <v>509.586624206626</v>
       </c>
       <c r="Q23" t="n">
         <v>334.0189925268519</v>
       </c>
       <c r="R23" t="n">
-        <v>108.0243783196388</v>
+        <v>108.0243783196389</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>133.5815127678089</v>
       </c>
       <c r="K24" t="n">
-        <v>307.2563492694127</v>
+        <v>307.2563492694128</v>
       </c>
       <c r="L24" t="n">
-        <v>459.9345249925929</v>
+        <v>459.934524992593</v>
       </c>
       <c r="M24" t="n">
         <v>556.2742890495081</v>
       </c>
       <c r="N24" t="n">
-        <v>524.8582191704473</v>
+        <v>585.5514010184247</v>
       </c>
       <c r="O24" t="n">
-        <v>513.2208976056922</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>392.3766669414656</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>60.15104881624882</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,10 +36519,10 @@
         <v>276.6563080634608</v>
       </c>
       <c r="L25" t="n">
-        <v>401.5981336562093</v>
+        <v>401.5981336562094</v>
       </c>
       <c r="M25" t="n">
-        <v>432.2680268413157</v>
+        <v>432.2680268413158</v>
       </c>
       <c r="N25" t="n">
         <v>428.2030747803366</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.1974380711071</v>
+        <v>256.1974380711072</v>
       </c>
       <c r="K26" t="n">
-        <v>435.2245758652721</v>
+        <v>435.2245758652722</v>
       </c>
       <c r="L26" t="n">
-        <v>577.2090784776485</v>
+        <v>577.2090784776487</v>
       </c>
       <c r="M26" t="n">
-        <v>674.2456468407669</v>
+        <v>674.245646840767</v>
       </c>
       <c r="N26" t="n">
-        <v>689.8160588126434</v>
+        <v>689.8160588126436</v>
       </c>
       <c r="O26" t="n">
-        <v>637.9037826003041</v>
+        <v>637.9037826003043</v>
       </c>
       <c r="P26" t="n">
-        <v>509.5866242066259</v>
+        <v>509.586624206626</v>
       </c>
       <c r="Q26" t="n">
         <v>334.0189925268519</v>
       </c>
       <c r="R26" t="n">
-        <v>108.0243783196388</v>
+        <v>108.0243783196389</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>72.88833091983078</v>
       </c>
       <c r="K27" t="n">
-        <v>307.2563492694127</v>
+        <v>307.2563492694128</v>
       </c>
       <c r="L27" t="n">
-        <v>140.4461889709587</v>
+        <v>459.934524992593</v>
       </c>
       <c r="M27" t="n">
         <v>556.2742890495081</v>
       </c>
       <c r="N27" t="n">
-        <v>585.5514010184246</v>
+        <v>585.5514010184247</v>
       </c>
       <c r="O27" t="n">
-        <v>513.2208976056922</v>
+        <v>513.2208976056924</v>
       </c>
       <c r="P27" t="n">
-        <v>392.3766669414655</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>100.4639926159091</v>
+        <v>100.4639926159089</v>
       </c>
       <c r="K28" t="n">
-        <v>276.6563080634608</v>
+        <v>276.6563080634606</v>
       </c>
       <c r="L28" t="n">
-        <v>401.5981336562093</v>
+        <v>401.5981336562091</v>
       </c>
       <c r="M28" t="n">
-        <v>432.2680268413157</v>
+        <v>432.2680268413156</v>
       </c>
       <c r="N28" t="n">
-        <v>428.2030747803366</v>
+        <v>428.2030747803365</v>
       </c>
       <c r="O28" t="n">
-        <v>381.6608522427032</v>
+        <v>381.6608522427031</v>
       </c>
       <c r="P28" t="n">
-        <v>307.2125095900042</v>
+        <v>307.2125095900041</v>
       </c>
       <c r="Q28" t="n">
-        <v>137.7864877344946</v>
+        <v>137.7864877344945</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.1974380711071</v>
+        <v>256.1974380711072</v>
       </c>
       <c r="K29" t="n">
-        <v>435.2245758652721</v>
+        <v>435.2245758652722</v>
       </c>
       <c r="L29" t="n">
-        <v>577.2090784776485</v>
+        <v>577.2090784776487</v>
       </c>
       <c r="M29" t="n">
-        <v>674.2456468407669</v>
+        <v>674.245646840767</v>
       </c>
       <c r="N29" t="n">
-        <v>689.8160588126434</v>
+        <v>689.8160588126436</v>
       </c>
       <c r="O29" t="n">
-        <v>637.9037826003041</v>
+        <v>637.9037826003043</v>
       </c>
       <c r="P29" t="n">
-        <v>509.5866242066259</v>
+        <v>509.586624206626</v>
       </c>
       <c r="Q29" t="n">
         <v>334.0189925268519</v>
       </c>
       <c r="R29" t="n">
-        <v>108.0243783196388</v>
+        <v>108.0243783196389</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>133.5815127678089</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>307.2563492694127</v>
+        <v>307.2563492694128</v>
       </c>
       <c r="L30" t="n">
-        <v>459.9345249925929</v>
+        <v>459.934524992593</v>
       </c>
       <c r="M30" t="n">
         <v>556.2742890495081</v>
       </c>
       <c r="N30" t="n">
-        <v>585.5514010184246</v>
+        <v>585.5514010184247</v>
       </c>
       <c r="O30" t="n">
-        <v>60.15104881624928</v>
+        <v>513.2208976056924</v>
       </c>
       <c r="P30" t="n">
-        <v>392.3766669414655</v>
+        <v>72.88833091983123</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>100.4639926159091</v>
+        <v>100.4639926159089</v>
       </c>
       <c r="K31" t="n">
-        <v>276.6563080634608</v>
+        <v>276.6563080634606</v>
       </c>
       <c r="L31" t="n">
-        <v>401.5981336562094</v>
+        <v>401.5981336562091</v>
       </c>
       <c r="M31" t="n">
-        <v>432.2680268413158</v>
+        <v>432.2680268413156</v>
       </c>
       <c r="N31" t="n">
-        <v>428.2030747803366</v>
+        <v>428.2030747803365</v>
       </c>
       <c r="O31" t="n">
-        <v>381.6608522427032</v>
+        <v>381.6608522427031</v>
       </c>
       <c r="P31" t="n">
-        <v>307.2125095900043</v>
+        <v>307.2125095900041</v>
       </c>
       <c r="Q31" t="n">
-        <v>137.7864877344946</v>
+        <v>137.7864877344945</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>133.5815127678089</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>76.79210009952197</v>
+        <v>447.7025382403714</v>
       </c>
       <c r="M33" t="n">
         <v>556.2742890495081</v>
@@ -37166,10 +37166,10 @@
         <v>392.3766669414655</v>
       </c>
       <c r="Q33" t="n">
-        <v>211.8699799690816</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.4589454039594</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,13 +37239,13 @@
         <v>428.2030747803366</v>
       </c>
       <c r="O34" t="n">
-        <v>381.6608522427033</v>
+        <v>381.6608522427032</v>
       </c>
       <c r="P34" t="n">
         <v>307.2125095900043</v>
       </c>
       <c r="Q34" t="n">
-        <v>137.7864877344947</v>
+        <v>137.7864877344946</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37394,13 +37394,13 @@
         <v>556.2742890495081</v>
       </c>
       <c r="N36" t="n">
-        <v>132.4815522289817</v>
+        <v>585.5514010184246</v>
       </c>
       <c r="O36" t="n">
-        <v>513.2208976056922</v>
+        <v>452.5277157577149</v>
       </c>
       <c r="P36" t="n">
-        <v>392.3766669414655</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37631,13 +37631,13 @@
         <v>556.2742890495081</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4815522289817</v>
+        <v>585.5514010184246</v>
       </c>
       <c r="O39" t="n">
-        <v>513.2208976056922</v>
+        <v>452.5277157577149</v>
       </c>
       <c r="P39" t="n">
-        <v>392.3766669414655</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>585.5514010184246</v>
       </c>
       <c r="O42" t="n">
-        <v>60.15104881624928</v>
+        <v>452.5277157577149</v>
       </c>
       <c r="P42" t="n">
-        <v>392.3766669414655</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>334.0189925268519</v>
       </c>
       <c r="R44" t="n">
-        <v>108.0243783196385</v>
+        <v>108.0243783196388</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>133.5815127678089</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>307.2563492694127</v>
       </c>
       <c r="L45" t="n">
         <v>459.9345249925929</v>
@@ -38108,16 +38108,16 @@
         <v>585.5514010184246</v>
       </c>
       <c r="O45" t="n">
-        <v>513.2208976056922</v>
+        <v>452.5277157577149</v>
       </c>
       <c r="P45" t="n">
-        <v>142.8157548162032</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.8699799690816</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.4589454039594</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,10 +38178,10 @@
         <v>276.6563080634608</v>
       </c>
       <c r="L46" t="n">
-        <v>401.5981336562093</v>
+        <v>401.5981336562094</v>
       </c>
       <c r="M46" t="n">
-        <v>432.2680268413157</v>
+        <v>432.2680268413158</v>
       </c>
       <c r="N46" t="n">
         <v>428.2030747803366</v>
@@ -38190,7 +38190,7 @@
         <v>381.6608522427032</v>
       </c>
       <c r="P46" t="n">
-        <v>307.2125095900042</v>
+        <v>307.2125095900043</v>
       </c>
       <c r="Q46" t="n">
         <v>137.7864877344946</v>
